--- a/import/prep/excel/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
+++ b/import/prep/excel/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Desktop/ข้อมูล อจน./ทะเบียนคุมใบแจ้งหนี้+ใบเสร็จ/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B4A19D-8944-574E-A8DD-4C0F1F0275C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B968CAE-2ABE-0945-8A0E-12E5C9266165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$4:$AA$278</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$R$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AA$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$W$252</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7582" uniqueCount="3836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7581" uniqueCount="3836">
   <si>
     <t>รวมเงิน</t>
   </si>
@@ -11552,11 +11552,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="170" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -11811,12 +11811,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11828,23 +11828,23 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -11855,13 +11855,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11873,41 +11873,41 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11919,12 +11919,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11934,10 +11934,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11968,20 +11968,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11990,15 +11990,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12007,7 +12007,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12017,44 +12017,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12069,56 +12069,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12128,7 +12104,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12140,18 +12116,17 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12166,10 +12141,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12181,99 +12156,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12293,10 +12196,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12316,8 +12291,8 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="เครื่องหมายจุลภาค 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="เครื่องหมายจุลภาค 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12594,7 +12569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R855"/>
   <sheetViews>
     <sheetView topLeftCell="A825" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12618,117 +12593,117 @@
     <col min="13" max="13" width="24.6640625" style="9" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" style="8" customWidth="1"/>
     <col min="15" max="15" width="4.1640625" style="107" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" style="124" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="114" customWidth="1"/>
     <col min="17" max="17" width="21.1640625" style="9" customWidth="1"/>
     <col min="18" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="129" t="s">
         <v>3190</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="38"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="N2" s="122" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="N2" s="112" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="108"/>
-      <c r="P2" s="125"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="139" t="s">
+      <c r="J3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="142" t="s">
+      <c r="N3" s="131" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="121" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="111" t="s">
         <v>2419</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="121" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="123" t="s">
+      <c r="G4" s="132"/>
+      <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="121" t="s">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="139"/>
-      <c r="N4" s="142"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="131"/>
       <c r="R4" s="109" t="s">
         <v>3191</v>
       </c>
@@ -24564,7 +24539,7 @@
       <c r="O236" s="107">
         <v>1</v>
       </c>
-      <c r="P236" s="126"/>
+      <c r="P236" s="116"/>
     </row>
     <row r="237" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
@@ -36040,7 +36015,7 @@
       <c r="O461" s="107">
         <v>0</v>
       </c>
-      <c r="P461" s="124"/>
+      <c r="P461" s="114"/>
     </row>
     <row r="462" spans="1:16" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
@@ -36092,7 +36067,7 @@
       <c r="O462" s="107">
         <v>0</v>
       </c>
-      <c r="P462" s="124"/>
+      <c r="P462" s="114"/>
     </row>
     <row r="463" spans="1:16" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
@@ -36144,7 +36119,7 @@
       <c r="O463" s="107">
         <v>0</v>
       </c>
-      <c r="P463" s="125"/>
+      <c r="P463" s="115"/>
     </row>
     <row r="464" spans="1:16" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
@@ -36196,7 +36171,7 @@
       <c r="O464" s="107">
         <v>0</v>
       </c>
-      <c r="P464" s="125"/>
+      <c r="P464" s="115"/>
     </row>
     <row r="465" spans="1:16" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
@@ -36248,7 +36223,7 @@
       <c r="O465" s="107">
         <v>0</v>
       </c>
-      <c r="P465" s="125"/>
+      <c r="P465" s="115"/>
     </row>
     <row r="466" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
@@ -36300,7 +36275,7 @@
       <c r="O466" s="107">
         <v>0</v>
       </c>
-      <c r="P466" s="125"/>
+      <c r="P466" s="115"/>
     </row>
     <row r="467" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
@@ -36352,7 +36327,7 @@
       <c r="O467" s="107">
         <v>0</v>
       </c>
-      <c r="P467" s="125"/>
+      <c r="P467" s="115"/>
     </row>
     <row r="468" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
@@ -54881,7 +54856,7 @@
         <f>SUM(M5:M830)</f>
         <v>2016658.7799999979</v>
       </c>
-      <c r="N831" s="127">
+      <c r="N831" s="117">
         <f>SUM(N5:N830)</f>
         <v>2016658.7799999979</v>
       </c>
@@ -54978,11 +54953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA260"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L251" sqref="L251"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -55001,124 +54976,115 @@
     <col min="12" max="12" width="24.1640625" style="9" customWidth="1"/>
     <col min="13" max="13" width="23.1640625" style="9" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="5" style="92" customWidth="1"/>
-    <col min="16" max="16" width="16" style="8" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="110" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="9"/>
+    <col min="15" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" s="130" t="s">
         <v>3370</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
       <c r="N1" s="24"/>
-      <c r="O1" s="107"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="46"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="36"/>
       <c r="H2" s="38"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="N2" s="122" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="N2" s="112" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="139" t="s">
+      <c r="J3" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="142" t="s">
+      <c r="N3" s="131" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="121" t="s">
+    <row r="4" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="111" t="s">
         <v>2419</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="121" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="123" t="s">
+      <c r="G4" s="132"/>
+      <c r="H4" s="113" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="121" t="s">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="139"/>
-      <c r="N4" s="142"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="112" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="128"/>
+      <c r="N4" s="131"/>
+    </row>
+    <row r="5" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
         <v>1</v>
       </c>
@@ -55165,12 +55131,8 @@
       <c r="N5" s="19">
         <v>308.16000000000003</v>
       </c>
-      <c r="O5" s="91">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -55217,13 +55179,9 @@
       <c r="N6" s="20">
         <v>12262.200000000003</v>
       </c>
-      <c r="O6" s="91">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27">
         <v>3</v>
       </c>
@@ -55270,13 +55228,9 @@
       <c r="N7" s="19">
         <v>21.400000000000002</v>
       </c>
-      <c r="O7" s="91">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -55323,13 +55277,9 @@
       <c r="N8" s="20">
         <v>2097.1999999999998</v>
       </c>
-      <c r="O8" s="91">
-        <v>1</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27">
         <v>5</v>
       </c>
@@ -55376,13 +55326,9 @@
       <c r="N9" s="19">
         <v>17.12</v>
       </c>
-      <c r="O9" s="91">
-        <v>1</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -55429,13 +55375,9 @@
       <c r="N10" s="20">
         <v>992.96000000000015</v>
       </c>
-      <c r="O10" s="91">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27">
         <v>7</v>
       </c>
@@ -55482,12 +55424,9 @@
       <c r="N11" s="19">
         <v>98.44</v>
       </c>
-      <c r="O11" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -55534,13 +55473,9 @@
       <c r="N12" s="20">
         <v>5221.5999999999995</v>
       </c>
-      <c r="O12" s="91">
-        <v>1</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27">
         <v>9</v>
       </c>
@@ -55587,13 +55522,9 @@
       <c r="N13" s="19">
         <v>633.44000000000005</v>
       </c>
-      <c r="O13" s="91">
-        <v>1</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -55640,13 +55571,9 @@
       <c r="N14" s="20">
         <v>9544.399999999996</v>
       </c>
-      <c r="O14" s="91">
-        <v>1</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27">
         <v>11</v>
       </c>
@@ -55693,13 +55620,9 @@
       <c r="N15" s="19">
         <v>1510.84</v>
       </c>
-      <c r="O15" s="91">
-        <v>1</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -55746,13 +55669,9 @@
       <c r="N16" s="20">
         <v>85.6</v>
       </c>
-      <c r="O16" s="91">
-        <v>1</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27">
         <v>13</v>
       </c>
@@ -55799,13 +55718,9 @@
       <c r="N17" s="19">
         <v>29.96</v>
       </c>
-      <c r="O17" s="91">
-        <v>1</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -55852,13 +55767,9 @@
       <c r="N18" s="20">
         <v>5632.4799999999968</v>
       </c>
-      <c r="O18" s="91">
-        <v>1</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27">
         <v>15</v>
       </c>
@@ -55905,13 +55816,9 @@
       <c r="N19" s="19">
         <v>9381.76</v>
       </c>
-      <c r="O19" s="91">
-        <v>1</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -55958,13 +55865,9 @@
       <c r="N20" s="20">
         <v>1866.08</v>
       </c>
-      <c r="O20" s="91">
-        <v>1</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="27">
         <v>17</v>
       </c>
@@ -56011,13 +55914,9 @@
       <c r="N21" s="19">
         <v>1335.3599999999992</v>
       </c>
-      <c r="O21" s="91">
-        <v>1</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -56064,13 +55963,9 @@
       <c r="N22" s="20">
         <v>8611.3600000000024</v>
       </c>
-      <c r="O22" s="91">
-        <v>1</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="27">
         <v>19</v>
       </c>
@@ -56117,13 +56012,9 @@
       <c r="N23" s="19">
         <v>4143.04</v>
       </c>
-      <c r="O23" s="91">
-        <v>1</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -56170,13 +56061,9 @@
       <c r="N24" s="20">
         <v>12399.16</v>
       </c>
-      <c r="O24" s="91">
-        <v>1</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="27">
         <v>21</v>
       </c>
@@ -56223,13 +56110,9 @@
       <c r="N25" s="19">
         <v>8748.3200000000015</v>
       </c>
-      <c r="O25" s="91">
-        <v>1</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -56276,13 +56159,9 @@
       <c r="N26" s="20">
         <v>7002.0800000000008</v>
       </c>
-      <c r="O26" s="91">
-        <v>1</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27">
         <v>23</v>
       </c>
@@ -56329,12 +56208,9 @@
       <c r="N27" s="19">
         <v>55.64</v>
       </c>
-      <c r="O27" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -56381,12 +56257,9 @@
       <c r="N28" s="20">
         <v>149.80000000000001</v>
       </c>
-      <c r="O28" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27">
         <v>25</v>
       </c>
@@ -56433,12 +56306,9 @@
       <c r="N29" s="19">
         <v>166.92</v>
       </c>
-      <c r="O29" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -56485,13 +56355,9 @@
       <c r="N30" s="20">
         <v>9779.8000000000011</v>
       </c>
-      <c r="O30" s="91">
-        <v>1</v>
-      </c>
-      <c r="P30" s="9"/>
-      <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="27">
         <v>27</v>
       </c>
@@ -56538,13 +56404,9 @@
       <c r="N31" s="19">
         <v>0</v>
       </c>
-      <c r="O31" s="91">
-        <v>1</v>
-      </c>
-      <c r="P31" s="9"/>
-      <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -56591,12 +56453,9 @@
       <c r="N32" s="20">
         <v>162.63999999999999</v>
       </c>
-      <c r="O32" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="27">
         <v>29</v>
       </c>
@@ -56643,12 +56502,9 @@
       <c r="N33" s="19">
         <v>77.040000000000006</v>
       </c>
-      <c r="O33" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -56695,12 +56551,9 @@
       <c r="N34" s="20">
         <v>8.56</v>
       </c>
-      <c r="O34" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27">
         <v>31</v>
       </c>
@@ -56747,12 +56600,9 @@
       <c r="N35" s="19">
         <v>34.24</v>
       </c>
-      <c r="O35" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -56799,12 +56649,9 @@
       <c r="N36" s="20">
         <v>308.16000000000003</v>
       </c>
-      <c r="O36" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27">
         <v>33</v>
       </c>
@@ -56851,13 +56698,9 @@
       <c r="N37" s="19">
         <v>12.84</v>
       </c>
-      <c r="O37" s="91">
-        <v>1</v>
-      </c>
-      <c r="P37" s="9"/>
-      <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -56904,13 +56747,9 @@
       <c r="N38" s="20">
         <v>1390.9999999999993</v>
       </c>
-      <c r="O38" s="91">
-        <v>1</v>
-      </c>
-      <c r="P38" s="9"/>
-      <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27">
         <v>35</v>
       </c>
@@ -56957,12 +56796,9 @@
       <c r="N39" s="19">
         <v>6278.76</v>
       </c>
-      <c r="O39" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -57009,12 +56845,9 @@
       <c r="N40" s="20">
         <v>132.68</v>
       </c>
-      <c r="O40" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="27">
         <v>37</v>
       </c>
@@ -57061,12 +56894,9 @@
       <c r="N41" s="19">
         <v>29.96</v>
       </c>
-      <c r="O41" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -57113,13 +56943,9 @@
       <c r="N42" s="20">
         <v>851.72</v>
       </c>
-      <c r="O42" s="91">
-        <v>1</v>
-      </c>
-      <c r="P42" s="9"/>
-      <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="27">
         <v>39</v>
       </c>
@@ -57166,13 +56992,9 @@
       <c r="N43" s="19">
         <v>40831.200000000004</v>
       </c>
-      <c r="O43" s="91">
-        <v>1</v>
-      </c>
-      <c r="P43" s="9"/>
-      <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -57219,13 +57041,9 @@
       <c r="N44" s="20">
         <v>11312.039999999997</v>
       </c>
-      <c r="O44" s="91">
-        <v>1</v>
-      </c>
-      <c r="P44" s="9"/>
-      <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="27">
         <v>41</v>
       </c>
@@ -57272,13 +57090,9 @@
       <c r="N45" s="19">
         <v>4990.4799999999987</v>
       </c>
-      <c r="O45" s="91">
-        <v>1</v>
-      </c>
-      <c r="P45" s="9"/>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -57325,13 +57139,9 @@
       <c r="N46" s="20">
         <v>1241.2</v>
       </c>
-      <c r="O46" s="91">
-        <v>1</v>
-      </c>
-      <c r="P46" s="9"/>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="27">
         <v>43</v>
       </c>
@@ -57378,13 +57188,9 @@
       <c r="N47" s="19">
         <v>10460.320000000002</v>
       </c>
-      <c r="O47" s="91">
-        <v>1</v>
-      </c>
-      <c r="P47" s="9"/>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -57431,13 +57237,9 @@
       <c r="N48" s="20">
         <v>5718.08</v>
       </c>
-      <c r="O48" s="91">
-        <v>1</v>
-      </c>
-      <c r="P48" s="9"/>
-      <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="27">
         <v>45</v>
       </c>
@@ -57484,12 +57286,9 @@
       <c r="N49" s="19">
         <v>34.24</v>
       </c>
-      <c r="O49" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -57536,13 +57335,9 @@
       <c r="N50" s="20">
         <v>800.35999999999967</v>
       </c>
-      <c r="O50" s="91">
-        <v>1</v>
-      </c>
-      <c r="P50" s="9"/>
-      <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="27">
         <v>47</v>
       </c>
@@ -57589,13 +57384,9 @@
       <c r="N51" s="19">
         <v>21215.959999999992</v>
       </c>
-      <c r="O51" s="91">
-        <v>1</v>
-      </c>
-      <c r="P51" s="9"/>
-      <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -57642,13 +57433,9 @@
       <c r="N52" s="20">
         <v>77.040000000000006</v>
       </c>
-      <c r="O52" s="91">
-        <v>1</v>
-      </c>
-      <c r="P52" s="9"/>
-      <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="27">
         <v>49</v>
       </c>
@@ -57695,13 +57482,9 @@
       <c r="N53" s="19">
         <v>282.48</v>
       </c>
-      <c r="O53" s="91">
-        <v>1</v>
-      </c>
-      <c r="P53" s="9"/>
-      <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -57748,13 +57531,9 @@
       <c r="N54" s="20">
         <v>2859.0400000000004</v>
       </c>
-      <c r="O54" s="91">
-        <v>1</v>
-      </c>
-      <c r="P54" s="9"/>
-      <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="27">
         <v>51</v>
       </c>
@@ -57801,13 +57580,9 @@
       <c r="N55" s="19">
         <v>1206.96</v>
       </c>
-      <c r="O55" s="91">
-        <v>1</v>
-      </c>
-      <c r="P55" s="9"/>
-      <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -57854,13 +57629,9 @@
       <c r="N56" s="20">
         <v>7310.24</v>
       </c>
-      <c r="O56" s="91">
-        <v>1</v>
-      </c>
-      <c r="P56" s="9"/>
-      <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="27">
         <v>53</v>
       </c>
@@ -57907,13 +57678,9 @@
       <c r="N57" s="19">
         <v>6180.3200000000015</v>
       </c>
-      <c r="O57" s="91">
-        <v>1</v>
-      </c>
-      <c r="P57" s="9"/>
-      <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -57960,13 +57727,9 @@
       <c r="N58" s="20">
         <v>1262.5999999999999</v>
       </c>
-      <c r="O58" s="91">
-        <v>1</v>
-      </c>
-      <c r="P58" s="9"/>
-      <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="27">
         <v>55</v>
       </c>
@@ -58013,13 +57776,9 @@
       <c r="N59" s="19">
         <v>4.28</v>
       </c>
-      <c r="O59" s="91">
-        <v>1</v>
-      </c>
-      <c r="P59" s="9"/>
-      <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -58066,13 +57825,9 @@
       <c r="N60" s="20">
         <v>2268.4</v>
       </c>
-      <c r="O60" s="91">
-        <v>1</v>
-      </c>
-      <c r="P60" s="9"/>
-      <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="27">
         <v>57</v>
       </c>
@@ -58119,13 +57874,9 @@
       <c r="N61" s="19">
         <v>28778.720000000001</v>
       </c>
-      <c r="O61" s="91">
-        <v>1</v>
-      </c>
-      <c r="P61" s="9"/>
-      <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -58172,13 +57923,9 @@
       <c r="N62" s="20">
         <v>5251.5599999999986</v>
       </c>
-      <c r="O62" s="91">
-        <v>1</v>
-      </c>
-      <c r="P62" s="9"/>
-      <c r="Y62" s="1"/>
-    </row>
-    <row r="63" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="27">
         <v>59</v>
       </c>
@@ -58225,13 +57972,9 @@
       <c r="N63" s="19">
         <v>3462.5200000000004</v>
       </c>
-      <c r="O63" s="91">
-        <v>1</v>
-      </c>
-      <c r="P63" s="9"/>
-      <c r="Y63" s="1"/>
-    </row>
-    <row r="64" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -58278,13 +58021,9 @@
       <c r="N64" s="20">
         <v>68.48</v>
       </c>
-      <c r="O64" s="91">
-        <v>1</v>
-      </c>
-      <c r="P64" s="9"/>
-      <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="27">
         <v>61</v>
       </c>
@@ -58331,13 +58070,9 @@
       <c r="N65" s="19">
         <v>25.68</v>
       </c>
-      <c r="O65" s="91">
-        <v>1</v>
-      </c>
-      <c r="P65" s="9"/>
-      <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -58384,13 +58119,9 @@
       <c r="N66" s="20">
         <v>21.400000000000002</v>
       </c>
-      <c r="O66" s="91">
-        <v>1</v>
-      </c>
-      <c r="P66" s="9"/>
-      <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="27">
         <v>63</v>
       </c>
@@ -58437,13 +58168,9 @@
       <c r="N67" s="19">
         <v>94.16</v>
       </c>
-      <c r="O67" s="91">
-        <v>1</v>
-      </c>
-      <c r="P67" s="9"/>
-      <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -58490,13 +58217,9 @@
       <c r="N68" s="20">
         <v>107</v>
       </c>
-      <c r="O68" s="91">
-        <v>1</v>
-      </c>
-      <c r="P68" s="9"/>
-      <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="27">
         <v>65</v>
       </c>
@@ -58543,13 +58266,9 @@
       <c r="N69" s="19">
         <v>179.76</v>
       </c>
-      <c r="O69" s="91">
-        <v>1</v>
-      </c>
-      <c r="P69" s="9"/>
-      <c r="Y69" s="1"/>
-    </row>
-    <row r="70" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -58596,13 +58315,9 @@
       <c r="N70" s="20">
         <v>0</v>
       </c>
-      <c r="O70" s="91">
-        <v>1</v>
-      </c>
-      <c r="P70" s="9"/>
-      <c r="Y70" s="1"/>
-    </row>
-    <row r="71" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="27">
         <v>67</v>
       </c>
@@ -58649,13 +58364,9 @@
       <c r="N71" s="19">
         <v>72.760000000000005</v>
       </c>
-      <c r="O71" s="91">
-        <v>1</v>
-      </c>
-      <c r="P71" s="9"/>
-      <c r="Y71" s="1"/>
-    </row>
-    <row r="72" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -58702,13 +58413,9 @@
       <c r="N72" s="20">
         <v>55.64</v>
       </c>
-      <c r="O72" s="91">
-        <v>1</v>
-      </c>
-      <c r="P72" s="9"/>
-      <c r="Y72" s="1"/>
-    </row>
-    <row r="73" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="27">
         <v>69</v>
       </c>
@@ -58755,13 +58462,9 @@
       <c r="N73" s="19">
         <v>7541.3599999999988</v>
       </c>
-      <c r="O73" s="91">
-        <v>1</v>
-      </c>
-      <c r="P73" s="9"/>
-      <c r="Y73" s="1"/>
-    </row>
-    <row r="74" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -58808,13 +58511,9 @@
       <c r="N74" s="20">
         <v>1716.2800000000002</v>
       </c>
-      <c r="O74" s="91">
-        <v>1</v>
-      </c>
-      <c r="P74" s="9"/>
-      <c r="Y74" s="1"/>
-    </row>
-    <row r="75" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="27">
         <v>71</v>
       </c>
@@ -58861,13 +58560,9 @@
       <c r="N75" s="19">
         <v>34.24</v>
       </c>
-      <c r="O75" s="91">
-        <v>1</v>
-      </c>
-      <c r="P75" s="9"/>
-      <c r="Y75" s="1"/>
-    </row>
-    <row r="76" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -58914,13 +58609,9 @@
       <c r="N76" s="20">
         <v>21.4</v>
       </c>
-      <c r="O76" s="91">
-        <v>1</v>
-      </c>
-      <c r="P76" s="9"/>
-      <c r="Y76" s="1"/>
-    </row>
-    <row r="77" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="27">
         <v>73</v>
       </c>
@@ -58967,13 +58658,9 @@
       <c r="N77" s="19">
         <v>17.12</v>
       </c>
-      <c r="O77" s="91">
-        <v>1</v>
-      </c>
-      <c r="P77" s="9"/>
-      <c r="Y77" s="1"/>
-    </row>
-    <row r="78" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -59020,13 +58707,9 @@
       <c r="N78" s="20">
         <v>21.4</v>
       </c>
-      <c r="O78" s="91">
-        <v>1</v>
-      </c>
-      <c r="P78" s="9"/>
-      <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="27">
         <v>75</v>
       </c>
@@ -59073,13 +58756,9 @@
       <c r="N79" s="19">
         <v>175.48</v>
       </c>
-      <c r="O79" s="91">
-        <v>1</v>
-      </c>
-      <c r="P79" s="9"/>
-      <c r="Y79" s="1"/>
-    </row>
-    <row r="80" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -59126,13 +58805,9 @@
       <c r="N80" s="20">
         <v>11183.64</v>
       </c>
-      <c r="O80" s="91">
-        <v>1</v>
-      </c>
-      <c r="P80" s="9"/>
-      <c r="Y80" s="1"/>
-    </row>
-    <row r="81" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="27">
         <v>77</v>
       </c>
@@ -59179,13 +58854,9 @@
       <c r="N81" s="19">
         <v>4.28</v>
       </c>
-      <c r="O81" s="91">
-        <v>1</v>
-      </c>
-      <c r="P81" s="9"/>
-      <c r="Y81" s="1"/>
-    </row>
-    <row r="82" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -59232,13 +58903,9 @@
       <c r="N82" s="20">
         <v>21.4</v>
       </c>
-      <c r="O82" s="91">
-        <v>1</v>
-      </c>
-      <c r="P82" s="9"/>
-      <c r="Y82" s="1"/>
-    </row>
-    <row r="83" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="27">
         <v>79</v>
       </c>
@@ -59285,13 +58952,9 @@
       <c r="N83" s="19">
         <v>17389.640000000003</v>
       </c>
-      <c r="O83" s="91">
-        <v>1</v>
-      </c>
-      <c r="P83" s="9"/>
-      <c r="Y83" s="1"/>
-    </row>
-    <row r="84" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -59338,13 +59001,9 @@
       <c r="N84" s="20">
         <v>14821.640000000003</v>
       </c>
-      <c r="O84" s="91">
-        <v>1</v>
-      </c>
-      <c r="P84" s="9"/>
-      <c r="Y84" s="1"/>
-    </row>
-    <row r="85" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="27">
         <v>81</v>
       </c>
@@ -59391,13 +59050,9 @@
       <c r="N85" s="19">
         <v>2760.6</v>
       </c>
-      <c r="O85" s="91">
-        <v>1</v>
-      </c>
-      <c r="P85" s="9"/>
-      <c r="Y85" s="1"/>
-    </row>
-    <row r="86" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -59444,13 +59099,9 @@
       <c r="N86" s="20">
         <v>64.2</v>
       </c>
-      <c r="O86" s="91">
-        <v>1</v>
-      </c>
-      <c r="P86" s="9"/>
-      <c r="Y86" s="1"/>
-    </row>
-    <row r="87" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="27">
         <v>83</v>
       </c>
@@ -59497,13 +59148,9 @@
       <c r="N87" s="19">
         <v>21.4</v>
       </c>
-      <c r="O87" s="91">
-        <v>1</v>
-      </c>
-      <c r="P87" s="9"/>
-      <c r="Y87" s="1"/>
-    </row>
-    <row r="88" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -59550,13 +59197,9 @@
       <c r="N88" s="20">
         <v>8838.2000000000007</v>
       </c>
-      <c r="O88" s="91">
-        <v>1</v>
-      </c>
-      <c r="P88" s="9"/>
-      <c r="Y88" s="1"/>
-    </row>
-    <row r="89" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="27">
         <v>85</v>
       </c>
@@ -59603,13 +59246,9 @@
       <c r="N89" s="19">
         <v>4288.5599999999995</v>
       </c>
-      <c r="O89" s="91">
-        <v>1</v>
-      </c>
-      <c r="P89" s="9"/>
-      <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -59656,13 +59295,9 @@
       <c r="N90" s="20">
         <v>4506.84</v>
       </c>
-      <c r="O90" s="91">
-        <v>1</v>
-      </c>
-      <c r="P90" s="9"/>
-      <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="27">
         <v>87</v>
       </c>
@@ -59709,13 +59344,9 @@
       <c r="N91" s="19">
         <v>29.96</v>
       </c>
-      <c r="O91" s="91">
-        <v>1</v>
-      </c>
-      <c r="P91" s="9"/>
-      <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -59762,13 +59393,9 @@
       <c r="N92" s="20">
         <v>38.520000000000003</v>
       </c>
-      <c r="O92" s="91">
-        <v>1</v>
-      </c>
-      <c r="P92" s="9"/>
-      <c r="Y92" s="1"/>
-    </row>
-    <row r="93" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="27">
         <v>89</v>
       </c>
@@ -59815,13 +59442,9 @@
       <c r="N93" s="19">
         <v>16935.96</v>
       </c>
-      <c r="O93" s="91">
-        <v>1</v>
-      </c>
-      <c r="P93" s="9"/>
-      <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -59868,13 +59491,9 @@
       <c r="N94" s="20">
         <v>5029</v>
       </c>
-      <c r="O94" s="91">
-        <v>1</v>
-      </c>
-      <c r="P94" s="9"/>
-      <c r="Y94" s="1"/>
-    </row>
-    <row r="95" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="27">
         <v>91</v>
       </c>
@@ -59921,13 +59540,9 @@
       <c r="N95" s="19">
         <v>9882.52</v>
       </c>
-      <c r="O95" s="91">
-        <v>1</v>
-      </c>
-      <c r="P95" s="9"/>
-      <c r="Y95" s="1"/>
-    </row>
-    <row r="96" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -59974,13 +59589,9 @@
       <c r="N96" s="20">
         <v>8.56</v>
       </c>
-      <c r="O96" s="91">
-        <v>1</v>
-      </c>
-      <c r="P96" s="9"/>
-      <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="27">
         <v>93</v>
       </c>
@@ -60027,13 +59638,9 @@
       <c r="N97" s="19">
         <v>282.47999999999996</v>
       </c>
-      <c r="O97" s="91">
-        <v>1</v>
-      </c>
-      <c r="P97" s="9"/>
-      <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -60080,13 +59687,9 @@
       <c r="N98" s="20">
         <v>29270.92</v>
       </c>
-      <c r="O98" s="91">
-        <v>1</v>
-      </c>
-      <c r="P98" s="9"/>
-      <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="27">
         <v>95</v>
       </c>
@@ -60133,12 +59736,9 @@
       <c r="N99" s="19">
         <v>2602.2399999999998</v>
       </c>
-      <c r="O99" s="91">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -60185,13 +59785,9 @@
       <c r="N100" s="20">
         <v>16662.04</v>
       </c>
-      <c r="O100" s="91">
-        <v>1</v>
-      </c>
-      <c r="P100" s="9"/>
-      <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="27">
         <v>97</v>
       </c>
@@ -60238,13 +59834,9 @@
       <c r="N101" s="19">
         <v>12.84</v>
       </c>
-      <c r="O101" s="91">
-        <v>1</v>
-      </c>
-      <c r="P101" s="9"/>
-      <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -60291,13 +59883,9 @@
       <c r="N102" s="20">
         <v>2413.9200000000005</v>
       </c>
-      <c r="O102" s="91">
-        <v>1</v>
-      </c>
-      <c r="P102" s="114"/>
-      <c r="Y102" s="1"/>
-    </row>
-    <row r="103" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="27">
         <v>99</v>
       </c>
@@ -60344,13 +59932,9 @@
       <c r="N103" s="19">
         <v>2576.56</v>
       </c>
-      <c r="O103" s="91">
-        <v>1</v>
-      </c>
-      <c r="P103" s="9"/>
-      <c r="Y103" s="1"/>
-    </row>
-    <row r="104" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -60397,13 +59981,9 @@
       <c r="N104" s="20">
         <v>10306.240000000002</v>
       </c>
-      <c r="O104" s="91">
-        <v>1</v>
-      </c>
-      <c r="P104" s="9"/>
-      <c r="Y104" s="1"/>
-    </row>
-    <row r="105" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="27">
         <v>101</v>
       </c>
@@ -60450,13 +60030,9 @@
       <c r="N105" s="19">
         <v>885.96</v>
       </c>
-      <c r="O105" s="91">
-        <v>1</v>
-      </c>
-      <c r="P105" s="9"/>
-      <c r="Y105" s="1"/>
-    </row>
-    <row r="106" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -60503,13 +60079,9 @@
       <c r="N106" s="20">
         <v>36106.079999999994</v>
       </c>
-      <c r="O106" s="91">
-        <v>1</v>
-      </c>
-      <c r="P106" s="9"/>
-      <c r="Y106" s="1"/>
-    </row>
-    <row r="107" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U106" s="1"/>
+    </row>
+    <row r="107" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="27">
         <v>103</v>
       </c>
@@ -60556,13 +60128,9 @@
       <c r="N107" s="19">
         <v>380.92</v>
       </c>
-      <c r="O107" s="91">
-        <v>1</v>
-      </c>
-      <c r="P107" s="9"/>
-      <c r="Y107" s="1"/>
-    </row>
-    <row r="108" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U107" s="1"/>
+    </row>
+    <row r="108" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>104</v>
       </c>
@@ -60609,13 +60177,9 @@
       <c r="N108" s="20">
         <v>4.28</v>
       </c>
-      <c r="O108" s="91">
-        <v>1</v>
-      </c>
-      <c r="P108" s="9"/>
-      <c r="Y108" s="1"/>
-    </row>
-    <row r="109" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="27">
         <v>105</v>
       </c>
@@ -60662,13 +60226,9 @@
       <c r="N109" s="19">
         <v>68.47999999999999</v>
       </c>
-      <c r="O109" s="91">
-        <v>1</v>
-      </c>
-      <c r="P109" s="9"/>
-      <c r="Y109" s="1"/>
-    </row>
-    <row r="110" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U109" s="1"/>
+    </row>
+    <row r="110" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>106</v>
       </c>
@@ -60715,13 +60275,9 @@
       <c r="N110" s="20">
         <v>209.72</v>
       </c>
-      <c r="O110" s="91">
-        <v>1</v>
-      </c>
-      <c r="P110" s="9"/>
-      <c r="Y110" s="1"/>
-    </row>
-    <row r="111" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="27">
         <v>107</v>
       </c>
@@ -60768,13 +60324,9 @@
       <c r="N111" s="19">
         <v>23621.32</v>
       </c>
-      <c r="O111" s="91">
-        <v>1</v>
-      </c>
-      <c r="P111" s="9"/>
-      <c r="Y111" s="1"/>
-    </row>
-    <row r="112" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U111" s="1"/>
+    </row>
+    <row r="112" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>108</v>
       </c>
@@ -60821,13 +60373,9 @@
       <c r="N112" s="20">
         <v>55.64</v>
       </c>
-      <c r="O112" s="91">
-        <v>1</v>
-      </c>
-      <c r="P112" s="9"/>
-      <c r="Y112" s="1"/>
-    </row>
-    <row r="113" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U112" s="1"/>
+    </row>
+    <row r="113" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="27">
         <v>109</v>
       </c>
@@ -60874,13 +60422,9 @@
       <c r="N113" s="19">
         <v>2473.84</v>
       </c>
-      <c r="O113" s="91">
-        <v>1</v>
-      </c>
-      <c r="P113" s="9"/>
-      <c r="Y113" s="1"/>
-    </row>
-    <row r="114" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>110</v>
       </c>
@@ -60927,13 +60471,9 @@
       <c r="N114" s="20">
         <v>0</v>
       </c>
-      <c r="O114" s="91">
-        <v>1</v>
-      </c>
-      <c r="P114" s="9"/>
-      <c r="Y114" s="1"/>
-    </row>
-    <row r="115" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U114" s="1"/>
+    </row>
+    <row r="115" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="27">
         <v>111</v>
       </c>
@@ -60980,13 +60520,9 @@
       <c r="N115" s="19">
         <v>94.16</v>
       </c>
-      <c r="O115" s="91">
-        <v>1</v>
-      </c>
-      <c r="P115" s="9"/>
-      <c r="Y115" s="1"/>
-    </row>
-    <row r="116" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>112</v>
       </c>
@@ -61033,13 +60569,9 @@
       <c r="N116" s="20">
         <v>19195.800000000003</v>
       </c>
-      <c r="O116" s="91">
-        <v>1</v>
-      </c>
-      <c r="P116" s="9"/>
-      <c r="Y116" s="1"/>
-    </row>
-    <row r="117" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="27">
         <v>113</v>
       </c>
@@ -61086,13 +60618,9 @@
       <c r="N117" s="19">
         <v>6300.16</v>
       </c>
-      <c r="O117" s="91">
-        <v>1</v>
-      </c>
-      <c r="P117" s="9"/>
-      <c r="Y117" s="1"/>
-    </row>
-    <row r="118" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U117" s="1"/>
+    </row>
+    <row r="118" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>114</v>
       </c>
@@ -61139,13 +60667,9 @@
       <c r="N118" s="20">
         <v>6719.6</v>
       </c>
-      <c r="O118" s="91">
-        <v>1</v>
-      </c>
-      <c r="P118" s="9"/>
-      <c r="Y118" s="1"/>
-    </row>
-    <row r="119" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="27">
         <v>115</v>
       </c>
@@ -61192,13 +60716,9 @@
       <c r="N119" s="19">
         <v>19902</v>
       </c>
-      <c r="O119" s="91">
-        <v>1</v>
-      </c>
-      <c r="P119" s="9"/>
-      <c r="Y119" s="1"/>
-    </row>
-    <row r="120" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U119" s="1"/>
+    </row>
+    <row r="120" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>116</v>
       </c>
@@ -61245,13 +60765,9 @@
       <c r="N120" s="20">
         <v>24318.960000000006</v>
       </c>
-      <c r="O120" s="91">
-        <v>1</v>
-      </c>
-      <c r="P120" s="9"/>
-      <c r="Y120" s="1"/>
-    </row>
-    <row r="121" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="27">
         <v>117</v>
       </c>
@@ -61298,13 +60814,9 @@
       <c r="N121" s="19">
         <v>39970.920000000006</v>
       </c>
-      <c r="O121" s="91">
-        <v>1</v>
-      </c>
-      <c r="P121" s="9"/>
-      <c r="Y121" s="1"/>
-    </row>
-    <row r="122" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U121" s="1"/>
+    </row>
+    <row r="122" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>118</v>
       </c>
@@ -61351,13 +60863,9 @@
       <c r="N122" s="20">
         <v>15296.719999999994</v>
       </c>
-      <c r="O122" s="91">
-        <v>1</v>
-      </c>
-      <c r="P122" s="9"/>
-      <c r="Y122" s="1"/>
-    </row>
-    <row r="123" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U122" s="1"/>
+    </row>
+    <row r="123" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="27">
         <v>119</v>
       </c>
@@ -61404,13 +60912,9 @@
       <c r="N123" s="19">
         <v>17072.920000000002</v>
       </c>
-      <c r="O123" s="91">
-        <v>1</v>
-      </c>
-      <c r="P123" s="9"/>
-      <c r="Y123" s="1"/>
-    </row>
-    <row r="124" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U123" s="1"/>
+    </row>
+    <row r="124" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>120</v>
       </c>
@@ -61457,13 +60961,9 @@
       <c r="N124" s="20">
         <v>1973.08</v>
       </c>
-      <c r="O124" s="91">
-        <v>1</v>
-      </c>
-      <c r="P124" s="9"/>
-      <c r="Y124" s="1"/>
-    </row>
-    <row r="125" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U124" s="1"/>
+    </row>
+    <row r="125" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="27">
         <v>121</v>
       </c>
@@ -61510,13 +61010,9 @@
       <c r="N125" s="19">
         <v>881.68000000000006</v>
       </c>
-      <c r="O125" s="91">
-        <v>1</v>
-      </c>
-      <c r="P125" s="9"/>
-      <c r="Y125" s="1"/>
-    </row>
-    <row r="126" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U125" s="1"/>
+    </row>
+    <row r="126" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>122</v>
       </c>
@@ -61563,13 +61059,9 @@
       <c r="N126" s="20">
         <v>920.2</v>
       </c>
-      <c r="O126" s="91">
-        <v>1</v>
-      </c>
-      <c r="P126" s="9"/>
-      <c r="Y126" s="1"/>
-    </row>
-    <row r="127" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U126" s="1"/>
+    </row>
+    <row r="127" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="27">
         <v>123</v>
       </c>
@@ -61616,13 +61108,9 @@
       <c r="N127" s="19">
         <v>1014.3600000000001</v>
       </c>
-      <c r="O127" s="91">
-        <v>1</v>
-      </c>
-      <c r="P127" s="9"/>
-      <c r="Y127" s="1"/>
-    </row>
-    <row r="128" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U127" s="1"/>
+    </row>
+    <row r="128" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>124</v>
       </c>
@@ -61669,13 +61157,9 @@
       <c r="N128" s="20">
         <v>214.00000000000003</v>
       </c>
-      <c r="O128" s="91">
-        <v>0</v>
-      </c>
-      <c r="P128" s="9"/>
-      <c r="Y128" s="1"/>
-    </row>
-    <row r="129" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U128" s="1"/>
+    </row>
+    <row r="129" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="27">
         <v>125</v>
       </c>
@@ -61722,13 +61206,9 @@
       <c r="N129" s="19">
         <v>607.76</v>
       </c>
-      <c r="O129" s="91">
-        <v>0</v>
-      </c>
-      <c r="P129" s="9"/>
-      <c r="Y129" s="1"/>
-    </row>
-    <row r="130" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U129" s="1"/>
+    </row>
+    <row r="130" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>126</v>
       </c>
@@ -61775,13 +61255,9 @@
       <c r="N130" s="20">
         <v>2936.08</v>
       </c>
-      <c r="O130" s="91">
-        <v>0</v>
-      </c>
-      <c r="P130" s="9"/>
-      <c r="Y130" s="1"/>
-    </row>
-    <row r="131" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U130" s="1"/>
+    </row>
+    <row r="131" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="27">
         <v>127</v>
       </c>
@@ -61828,14 +61304,9 @@
       <c r="N131" s="19">
         <v>17.12</v>
       </c>
-      <c r="O131" s="91">
-        <v>0</v>
-      </c>
-      <c r="P131" s="115"/>
-      <c r="Q131" s="116"/>
-      <c r="Y131" s="1"/>
-    </row>
-    <row r="132" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U131" s="1"/>
+    </row>
+    <row r="132" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>128</v>
       </c>
@@ -61882,14 +61353,9 @@
       <c r="N132" s="20">
         <v>25.68</v>
       </c>
-      <c r="O132" s="91">
-        <v>0</v>
-      </c>
-      <c r="P132" s="9"/>
-      <c r="R132" s="128"/>
-      <c r="AA132" s="1"/>
-    </row>
-    <row r="133" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="27">
         <v>129</v>
       </c>
@@ -61936,13 +61402,9 @@
       <c r="N133" s="19">
         <v>2675</v>
       </c>
-      <c r="O133" s="91">
-        <v>0</v>
-      </c>
-      <c r="P133" s="114"/>
-      <c r="Y133" s="1"/>
-    </row>
-    <row r="134" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U133" s="1"/>
+    </row>
+    <row r="134" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>130</v>
       </c>
@@ -61989,13 +61451,9 @@
       <c r="N134" s="20">
         <v>543.55999999999995</v>
       </c>
-      <c r="O134" s="91">
-        <v>0</v>
-      </c>
-      <c r="P134" s="9"/>
-      <c r="Y134" s="1"/>
-    </row>
-    <row r="135" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U134" s="1"/>
+    </row>
+    <row r="135" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="27">
         <v>131</v>
       </c>
@@ -62042,13 +61500,9 @@
       <c r="N135" s="19">
         <v>633.44000000000005</v>
       </c>
-      <c r="O135" s="91">
-        <v>0</v>
-      </c>
-      <c r="P135" s="9"/>
-      <c r="Y135" s="1"/>
-    </row>
-    <row r="136" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U135" s="1"/>
+    </row>
+    <row r="136" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>132</v>
       </c>
@@ -62095,13 +61549,9 @@
       <c r="N136" s="20">
         <v>17.12</v>
       </c>
-      <c r="O136" s="91">
-        <v>0</v>
-      </c>
-      <c r="P136" s="9"/>
-      <c r="Y136" s="1"/>
-    </row>
-    <row r="137" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U136" s="1"/>
+    </row>
+    <row r="137" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="27">
         <v>133</v>
       </c>
@@ -62148,13 +61598,9 @@
       <c r="N137" s="19">
         <v>22778.159999999996</v>
       </c>
-      <c r="O137" s="91">
-        <v>0</v>
-      </c>
-      <c r="P137" s="9"/>
-      <c r="Y137" s="1"/>
-    </row>
-    <row r="138" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U137" s="1"/>
+    </row>
+    <row r="138" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>134</v>
       </c>
@@ -62201,13 +61647,9 @@
       <c r="N138" s="20">
         <v>11354.84</v>
       </c>
-      <c r="O138" s="91">
-        <v>0</v>
-      </c>
-      <c r="P138" s="9"/>
-      <c r="Y138" s="1"/>
-    </row>
-    <row r="139" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U138" s="1"/>
+    </row>
+    <row r="139" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="27">
         <v>135</v>
       </c>
@@ -62254,13 +61696,9 @@
       <c r="N139" s="19">
         <v>774.68</v>
       </c>
-      <c r="O139" s="91">
-        <v>0</v>
-      </c>
-      <c r="P139" s="9"/>
-      <c r="Y139" s="1"/>
-    </row>
-    <row r="140" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U139" s="1"/>
+    </row>
+    <row r="140" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>136</v>
       </c>
@@ -62307,13 +61745,9 @@
       <c r="N140" s="20">
         <v>5987.72</v>
       </c>
-      <c r="O140" s="91">
-        <v>0</v>
-      </c>
-      <c r="P140" s="9"/>
-      <c r="Y140" s="1"/>
-    </row>
-    <row r="141" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U140" s="1"/>
+    </row>
+    <row r="141" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="27">
         <v>137</v>
       </c>
@@ -62360,13 +61794,9 @@
       <c r="N141" s="19">
         <v>47.08</v>
       </c>
-      <c r="O141" s="91">
-        <v>0</v>
-      </c>
-      <c r="P141" s="9"/>
-      <c r="Y141" s="1"/>
-    </row>
-    <row r="142" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U141" s="1"/>
+    </row>
+    <row r="142" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>138</v>
       </c>
@@ -62413,13 +61843,9 @@
       <c r="N142" s="20">
         <v>466.52000000000004</v>
       </c>
-      <c r="O142" s="91">
-        <v>0</v>
-      </c>
-      <c r="P142" s="9"/>
-      <c r="Y142" s="1"/>
-    </row>
-    <row r="143" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U142" s="1"/>
+    </row>
+    <row r="143" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="27">
         <v>139</v>
       </c>
@@ -62466,13 +61892,9 @@
       <c r="N143" s="19">
         <v>4104.5200000000004</v>
       </c>
-      <c r="O143" s="91">
-        <v>0</v>
-      </c>
-      <c r="P143" s="9"/>
-      <c r="Y143" s="1"/>
-    </row>
-    <row r="144" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U143" s="1"/>
+    </row>
+    <row r="144" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>140</v>
       </c>
@@ -62519,13 +61941,9 @@
       <c r="N144" s="20">
         <v>868.83999999999992</v>
       </c>
-      <c r="O144" s="91">
-        <v>0</v>
-      </c>
-      <c r="P144" s="9"/>
-      <c r="Y144" s="1"/>
-    </row>
-    <row r="145" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U144" s="1"/>
+    </row>
+    <row r="145" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="27">
         <v>141</v>
       </c>
@@ -62572,13 +61990,9 @@
       <c r="N145" s="19">
         <v>1378.1599999999999</v>
       </c>
-      <c r="O145" s="91">
-        <v>0</v>
-      </c>
-      <c r="P145" s="9"/>
-      <c r="Y145" s="1"/>
-    </row>
-    <row r="146" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U145" s="1"/>
+    </row>
+    <row r="146" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>142</v>
       </c>
@@ -62625,13 +62039,9 @@
       <c r="N146" s="20">
         <v>1699.16</v>
       </c>
-      <c r="O146" s="91">
-        <v>0</v>
-      </c>
-      <c r="P146" s="9"/>
-      <c r="Y146" s="1"/>
-    </row>
-    <row r="147" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U146" s="1"/>
+    </row>
+    <row r="147" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="27">
         <v>143</v>
       </c>
@@ -62678,13 +62088,9 @@
       <c r="N147" s="19">
         <v>47.08</v>
       </c>
-      <c r="O147" s="91">
-        <v>0</v>
-      </c>
-      <c r="P147" s="9"/>
-      <c r="Y147" s="1"/>
-    </row>
-    <row r="148" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U147" s="1"/>
+    </row>
+    <row r="148" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>144</v>
       </c>
@@ -62731,13 +62137,9 @@
       <c r="N148" s="20">
         <v>4472.6000000000004</v>
       </c>
-      <c r="O148" s="91">
-        <v>0</v>
-      </c>
-      <c r="P148" s="9"/>
-      <c r="Y148" s="1"/>
-    </row>
-    <row r="149" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U148" s="1"/>
+    </row>
+    <row r="149" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="27">
         <v>145</v>
       </c>
@@ -62784,13 +62186,9 @@
       <c r="N149" s="19">
         <v>4913.4399999999996</v>
       </c>
-      <c r="O149" s="91">
-        <v>0</v>
-      </c>
-      <c r="P149" s="9"/>
-      <c r="Y149" s="1"/>
-    </row>
-    <row r="150" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U149" s="1"/>
+    </row>
+    <row r="150" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>146</v>
       </c>
@@ -62837,13 +62235,9 @@
       <c r="N150" s="20">
         <v>1322.5200000000002</v>
       </c>
-      <c r="O150" s="91">
-        <v>0</v>
-      </c>
-      <c r="P150" s="9"/>
-      <c r="Y150" s="1"/>
-    </row>
-    <row r="151" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U150" s="1"/>
+    </row>
+    <row r="151" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="27">
         <v>147</v>
       </c>
@@ -62890,13 +62284,9 @@
       <c r="N151" s="19">
         <v>12454.800000000005</v>
       </c>
-      <c r="O151" s="91">
-        <v>0</v>
-      </c>
-      <c r="P151" s="9"/>
-      <c r="Y151" s="1"/>
-    </row>
-    <row r="152" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U151" s="1"/>
+    </row>
+    <row r="152" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>148</v>
       </c>
@@ -62943,13 +62333,9 @@
       <c r="N152" s="20">
         <v>8367.4</v>
       </c>
-      <c r="O152" s="91">
-        <v>0</v>
-      </c>
-      <c r="P152" s="9"/>
-      <c r="Y152" s="1"/>
-    </row>
-    <row r="153" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U152" s="1"/>
+    </row>
+    <row r="153" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="27">
         <v>149</v>
       </c>
@@ -62996,13 +62382,9 @@
       <c r="N153" s="19">
         <v>1703.44</v>
       </c>
-      <c r="O153" s="91">
-        <v>0</v>
-      </c>
-      <c r="P153" s="9"/>
-      <c r="Y153" s="1"/>
-    </row>
-    <row r="154" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U153" s="1"/>
+    </row>
+    <row r="154" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>150</v>
       </c>
@@ -63049,13 +62431,9 @@
       <c r="N154" s="20">
         <v>55.64</v>
       </c>
-      <c r="O154" s="91">
-        <v>0</v>
-      </c>
-      <c r="P154" s="9"/>
-      <c r="Y154" s="1"/>
-    </row>
-    <row r="155" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U154" s="1"/>
+    </row>
+    <row r="155" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="27">
         <v>151</v>
       </c>
@@ -63102,13 +62480,9 @@
       <c r="N155" s="19">
         <v>265.36</v>
       </c>
-      <c r="O155" s="91">
-        <v>0</v>
-      </c>
-      <c r="P155" s="9"/>
-      <c r="Y155" s="1"/>
-    </row>
-    <row r="156" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U155" s="1"/>
+    </row>
+    <row r="156" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>152</v>
       </c>
@@ -63155,13 +62529,9 @@
       <c r="N156" s="20">
         <v>141.24</v>
       </c>
-      <c r="O156" s="91">
-        <v>0</v>
-      </c>
-      <c r="P156" s="9"/>
-      <c r="Y156" s="1"/>
-    </row>
-    <row r="157" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U156" s="1"/>
+    </row>
+    <row r="157" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="27">
         <v>153</v>
       </c>
@@ -63208,13 +62578,9 @@
       <c r="N157" s="19">
         <v>121757.44</v>
       </c>
-      <c r="O157" s="91">
-        <v>0</v>
-      </c>
-      <c r="P157" s="9"/>
-      <c r="Y157" s="1"/>
-    </row>
-    <row r="158" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U157" s="1"/>
+    </row>
+    <row r="158" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>154</v>
       </c>
@@ -63261,13 +62627,9 @@
       <c r="N158" s="20">
         <v>457.95999999999958</v>
       </c>
-      <c r="O158" s="91">
-        <v>0</v>
-      </c>
-      <c r="P158" s="9"/>
-      <c r="Y158" s="1"/>
-    </row>
-    <row r="159" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U158" s="1"/>
+    </row>
+    <row r="159" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="27">
         <v>155</v>
       </c>
@@ -63314,13 +62676,9 @@
       <c r="N159" s="19">
         <v>64.2</v>
       </c>
-      <c r="O159" s="91">
-        <v>0</v>
-      </c>
-      <c r="P159" s="9"/>
-      <c r="Y159" s="1"/>
-    </row>
-    <row r="160" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U159" s="1"/>
+    </row>
+    <row r="160" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>156</v>
       </c>
@@ -63367,13 +62725,9 @@
       <c r="N160" s="20">
         <v>38.520000000000003</v>
       </c>
-      <c r="O160" s="91">
-        <v>0</v>
-      </c>
-      <c r="P160" s="9"/>
-      <c r="Y160" s="1"/>
-    </row>
-    <row r="161" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U160" s="1"/>
+    </row>
+    <row r="161" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="27">
         <v>157</v>
       </c>
@@ -63420,13 +62774,9 @@
       <c r="N161" s="19">
         <v>933.04000000000019</v>
       </c>
-      <c r="O161" s="91">
-        <v>0</v>
-      </c>
-      <c r="P161" s="9"/>
-      <c r="Y161" s="1"/>
-    </row>
-    <row r="162" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U161" s="1"/>
+    </row>
+    <row r="162" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>158</v>
       </c>
@@ -63473,13 +62823,9 @@
       <c r="N162" s="20">
         <v>25.68</v>
       </c>
-      <c r="O162" s="91">
-        <v>0</v>
-      </c>
-      <c r="P162" s="9"/>
-      <c r="Y162" s="1"/>
-    </row>
-    <row r="163" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U162" s="1"/>
+    </row>
+    <row r="163" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="27">
         <v>159</v>
       </c>
@@ -63526,13 +62872,9 @@
       <c r="N163" s="19">
         <v>4.28</v>
       </c>
-      <c r="O163" s="91">
-        <v>0</v>
-      </c>
-      <c r="P163" s="9"/>
-      <c r="Y163" s="1"/>
-    </row>
-    <row r="164" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U163" s="1"/>
+    </row>
+    <row r="164" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>160</v>
       </c>
@@ -63579,13 +62921,9 @@
       <c r="N164" s="20">
         <v>149.80000000000001</v>
       </c>
-      <c r="O164" s="91">
-        <v>0</v>
-      </c>
-      <c r="P164" s="9"/>
-      <c r="Y164" s="1"/>
-    </row>
-    <row r="165" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U164" s="1"/>
+    </row>
+    <row r="165" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="27">
         <v>161</v>
       </c>
@@ -63632,13 +62970,9 @@
       <c r="N165" s="19">
         <v>81.319999999999993</v>
       </c>
-      <c r="O165" s="91">
-        <v>0</v>
-      </c>
-      <c r="P165" s="9"/>
-      <c r="Y165" s="1"/>
-    </row>
-    <row r="166" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U165" s="1"/>
+    </row>
+    <row r="166" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>162</v>
       </c>
@@ -63685,13 +63019,9 @@
       <c r="N166" s="20">
         <v>29.96</v>
       </c>
-      <c r="O166" s="91">
-        <v>0</v>
-      </c>
-      <c r="P166" s="9"/>
-      <c r="Y166" s="1"/>
-    </row>
-    <row r="167" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U166" s="1"/>
+    </row>
+    <row r="167" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="27">
         <v>163</v>
       </c>
@@ -63738,13 +63068,9 @@
       <c r="N167" s="19">
         <v>51.36</v>
       </c>
-      <c r="O167" s="91">
-        <v>0</v>
-      </c>
-      <c r="P167" s="9"/>
-      <c r="Y167" s="1"/>
-    </row>
-    <row r="168" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U167" s="1"/>
+    </row>
+    <row r="168" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>164</v>
       </c>
@@ -63791,13 +63117,9 @@
       <c r="N168" s="20">
         <v>77.040000000000006</v>
       </c>
-      <c r="O168" s="91">
-        <v>0</v>
-      </c>
-      <c r="P168" s="9"/>
-      <c r="Y168" s="1"/>
-    </row>
-    <row r="169" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U168" s="1"/>
+    </row>
+    <row r="169" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="27">
         <v>165</v>
       </c>
@@ -63844,13 +63166,9 @@
       <c r="N169" s="19">
         <v>77.040000000000006</v>
       </c>
-      <c r="O169" s="91">
-        <v>0</v>
-      </c>
-      <c r="P169" s="9"/>
-      <c r="Y169" s="1"/>
-    </row>
-    <row r="170" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U169" s="1"/>
+    </row>
+    <row r="170" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>166</v>
       </c>
@@ -63897,13 +63215,9 @@
       <c r="N170" s="20">
         <v>1459.4799999999998</v>
       </c>
-      <c r="O170" s="91">
-        <v>0</v>
-      </c>
-      <c r="P170" s="9"/>
-      <c r="Y170" s="1"/>
-    </row>
-    <row r="171" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U170" s="1"/>
+    </row>
+    <row r="171" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="27">
         <v>167</v>
       </c>
@@ -63950,13 +63264,9 @@
       <c r="N171" s="19">
         <v>1112.8000000000002</v>
       </c>
-      <c r="O171" s="91">
-        <v>0</v>
-      </c>
-      <c r="P171" s="9"/>
-      <c r="Y171" s="1"/>
-    </row>
-    <row r="172" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U171" s="1"/>
+    </row>
+    <row r="172" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>168</v>
       </c>
@@ -64003,13 +63313,9 @@
       <c r="N172" s="20">
         <v>102.72</v>
       </c>
-      <c r="O172" s="91">
-        <v>0</v>
-      </c>
-      <c r="P172" s="9"/>
-      <c r="Y172" s="1"/>
-    </row>
-    <row r="173" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U172" s="1"/>
+    </row>
+    <row r="173" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="27">
         <v>169</v>
       </c>
@@ -64056,13 +63362,9 @@
       <c r="N173" s="19">
         <v>2734.9200000000005</v>
       </c>
-      <c r="O173" s="91">
-        <v>0</v>
-      </c>
-      <c r="P173" s="9"/>
-      <c r="Y173" s="1"/>
-    </row>
-    <row r="174" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U173" s="1"/>
+    </row>
+    <row r="174" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>170</v>
       </c>
@@ -64109,13 +63411,9 @@
       <c r="N174" s="20">
         <v>29.96</v>
       </c>
-      <c r="O174" s="91">
-        <v>0</v>
-      </c>
-      <c r="P174" s="9"/>
-      <c r="Y174" s="1"/>
-    </row>
-    <row r="175" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U174" s="1"/>
+    </row>
+    <row r="175" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="27">
         <v>171</v>
       </c>
@@ -64162,13 +63460,9 @@
       <c r="N175" s="19">
         <v>1185.5600000000002</v>
       </c>
-      <c r="O175" s="91">
-        <v>0</v>
-      </c>
-      <c r="P175" s="9"/>
-      <c r="Y175" s="1"/>
-    </row>
-    <row r="176" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U175" s="1"/>
+    </row>
+    <row r="176" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>172</v>
       </c>
@@ -64215,13 +63509,9 @@
       <c r="N176" s="20">
         <v>710.4799999999999</v>
       </c>
-      <c r="O176" s="91">
-        <v>0</v>
-      </c>
-      <c r="P176" s="9"/>
-      <c r="Y176" s="1"/>
-    </row>
-    <row r="177" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U176" s="1"/>
+    </row>
+    <row r="177" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="27">
         <v>173</v>
       </c>
@@ -64268,13 +63558,9 @@
       <c r="N177" s="19">
         <v>9565.7999999999938</v>
       </c>
-      <c r="O177" s="91">
-        <v>0</v>
-      </c>
-      <c r="P177" s="9"/>
-      <c r="Y177" s="1"/>
-    </row>
-    <row r="178" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U177" s="1"/>
+    </row>
+    <row r="178" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>174</v>
       </c>
@@ -64321,13 +63607,9 @@
       <c r="N178" s="20">
         <v>21.4</v>
       </c>
-      <c r="O178" s="91">
-        <v>0</v>
-      </c>
-      <c r="P178" s="9"/>
-      <c r="Y178" s="1"/>
-    </row>
-    <row r="179" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U178" s="1"/>
+    </row>
+    <row r="179" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="27">
         <v>175</v>
       </c>
@@ -64374,13 +63656,9 @@
       <c r="N179" s="19">
         <v>21.4</v>
       </c>
-      <c r="O179" s="91">
-        <v>0</v>
-      </c>
-      <c r="P179" s="9"/>
-      <c r="Y179" s="1"/>
-    </row>
-    <row r="180" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U179" s="1"/>
+    </row>
+    <row r="180" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>176</v>
       </c>
@@ -64427,13 +63705,9 @@
       <c r="N180" s="20">
         <v>18070.160000000003</v>
       </c>
-      <c r="O180" s="91">
-        <v>0</v>
-      </c>
-      <c r="P180" s="9"/>
-      <c r="Y180" s="1"/>
-    </row>
-    <row r="181" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U180" s="1"/>
+    </row>
+    <row r="181" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="27">
         <v>177</v>
       </c>
@@ -64480,13 +63754,9 @@
       <c r="N181" s="19">
         <v>12728.720000000001</v>
       </c>
-      <c r="O181" s="91">
-        <v>0</v>
-      </c>
-      <c r="P181" s="9"/>
-      <c r="Y181" s="1"/>
-    </row>
-    <row r="182" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U181" s="1"/>
+    </row>
+    <row r="182" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>178</v>
       </c>
@@ -64533,13 +63803,9 @@
       <c r="N182" s="20">
         <v>81.320000000000007</v>
       </c>
-      <c r="O182" s="91">
-        <v>0</v>
-      </c>
-      <c r="P182" s="9"/>
-      <c r="Y182" s="1"/>
-    </row>
-    <row r="183" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U182" s="1"/>
+    </row>
+    <row r="183" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="27">
         <v>179</v>
       </c>
@@ -64586,13 +63852,9 @@
       <c r="N183" s="19">
         <v>0</v>
       </c>
-      <c r="O183" s="91">
-        <v>0</v>
-      </c>
-      <c r="P183" s="9"/>
-      <c r="Y183" s="1"/>
-    </row>
-    <row r="184" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U183" s="1"/>
+    </row>
+    <row r="184" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>180</v>
       </c>
@@ -64639,13 +63901,9 @@
       <c r="N184" s="20">
         <v>980.12000000000012</v>
       </c>
-      <c r="O184" s="91">
-        <v>0</v>
-      </c>
-      <c r="P184" s="9"/>
-      <c r="Y184" s="1"/>
-    </row>
-    <row r="185" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U184" s="1"/>
+    </row>
+    <row r="185" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="27">
         <v>181</v>
       </c>
@@ -64692,13 +63950,9 @@
       <c r="N185" s="19">
         <v>10186.4</v>
       </c>
-      <c r="O185" s="91">
-        <v>0</v>
-      </c>
-      <c r="P185" s="9"/>
-      <c r="Y185" s="1"/>
-    </row>
-    <row r="186" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U185" s="1"/>
+    </row>
+    <row r="186" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>182</v>
       </c>
@@ -64745,13 +63999,9 @@
       <c r="N186" s="20">
         <v>8816.8000000000011</v>
       </c>
-      <c r="O186" s="91">
-        <v>0</v>
-      </c>
-      <c r="P186" s="9"/>
-      <c r="Y186" s="1"/>
-    </row>
-    <row r="187" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U186" s="1"/>
+    </row>
+    <row r="187" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="27">
         <v>183</v>
       </c>
@@ -64798,13 +64048,9 @@
       <c r="N187" s="19">
         <v>175.48</v>
       </c>
-      <c r="O187" s="91">
-        <v>0</v>
-      </c>
-      <c r="P187" s="9"/>
-      <c r="X187" s="1"/>
-    </row>
-    <row r="188" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T187" s="1"/>
+    </row>
+    <row r="188" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>184</v>
       </c>
@@ -64851,13 +64097,8 @@
       <c r="N188" s="20">
         <v>72.760000000000005</v>
       </c>
-      <c r="O188" s="91">
-        <v>0</v>
-      </c>
-      <c r="P188" s="9"/>
-      <c r="Q188" s="111"/>
-    </row>
-    <row r="189" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="27">
         <v>185</v>
       </c>
@@ -64904,13 +64145,8 @@
       <c r="N189" s="19">
         <v>3368.3599999999997</v>
       </c>
-      <c r="O189" s="91">
-        <v>0</v>
-      </c>
-      <c r="P189" s="9"/>
-      <c r="Q189" s="111"/>
-    </row>
-    <row r="190" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>186</v>
       </c>
@@ -64957,13 +64193,8 @@
       <c r="N190" s="20">
         <v>269.64</v>
       </c>
-      <c r="O190" s="91">
-        <v>0</v>
-      </c>
-      <c r="P190" s="9"/>
-      <c r="Q190" s="111"/>
-    </row>
-    <row r="191" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="27">
         <v>187</v>
       </c>
@@ -65010,13 +64241,8 @@
       <c r="N191" s="20">
         <v>4643.8000000000011</v>
       </c>
-      <c r="O191" s="91">
-        <v>0</v>
-      </c>
-      <c r="P191" s="9"/>
-      <c r="Q191" s="111"/>
-    </row>
-    <row r="192" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>188</v>
       </c>
@@ -65063,13 +64289,8 @@
       <c r="N192" s="19">
         <v>1361.04</v>
       </c>
-      <c r="O192" s="91">
-        <v>0</v>
-      </c>
-      <c r="P192" s="9"/>
-      <c r="Q192" s="111"/>
-    </row>
-    <row r="193" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="27">
         <v>189</v>
       </c>
@@ -65116,13 +64337,8 @@
       <c r="N193" s="20">
         <v>530.72</v>
       </c>
-      <c r="O193" s="91">
-        <v>0</v>
-      </c>
-      <c r="P193" s="9"/>
-      <c r="Q193" s="111"/>
-    </row>
-    <row r="194" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>190</v>
       </c>
@@ -65169,13 +64385,8 @@
       <c r="N194" s="19">
         <v>372.36</v>
       </c>
-      <c r="O194" s="91">
-        <v>0</v>
-      </c>
-      <c r="P194" s="9"/>
-      <c r="Q194" s="111"/>
-    </row>
-    <row r="195" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="27">
         <v>191</v>
       </c>
@@ -65222,13 +64433,8 @@
       <c r="N195" s="20">
         <v>7828.1199999999972</v>
       </c>
-      <c r="O195" s="91">
-        <v>0</v>
-      </c>
-      <c r="P195" s="9"/>
-      <c r="Q195" s="111"/>
-    </row>
-    <row r="196" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>192</v>
       </c>
@@ -65275,13 +64481,8 @@
       <c r="N196" s="19">
         <v>42.8</v>
       </c>
-      <c r="O196" s="91">
-        <v>0</v>
-      </c>
-      <c r="P196" s="9"/>
-      <c r="Q196" s="111"/>
-    </row>
-    <row r="197" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="27">
         <v>193</v>
       </c>
@@ -65328,13 +64529,8 @@
       <c r="N197" s="20">
         <v>196.88</v>
       </c>
-      <c r="O197" s="91">
-        <v>0</v>
-      </c>
-      <c r="P197" s="9"/>
-      <c r="Q197" s="111"/>
-    </row>
-    <row r="198" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>194</v>
       </c>
@@ -65381,13 +64577,8 @@
       <c r="N198" s="19">
         <v>1262.5999999999999</v>
       </c>
-      <c r="O198" s="91">
-        <v>0</v>
-      </c>
-      <c r="P198" s="9"/>
-      <c r="Q198" s="111"/>
-    </row>
-    <row r="199" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="27">
         <v>195</v>
       </c>
@@ -65434,13 +64625,8 @@
       <c r="N199" s="20">
         <v>1279.72</v>
       </c>
-      <c r="O199" s="91">
-        <v>0</v>
-      </c>
-      <c r="P199" s="9"/>
-      <c r="Q199" s="111"/>
-    </row>
-    <row r="200" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>196</v>
       </c>
@@ -65487,13 +64673,8 @@
       <c r="N200" s="19">
         <v>2722.08</v>
       </c>
-      <c r="O200" s="91">
-        <v>0</v>
-      </c>
-      <c r="P200" s="9"/>
-      <c r="Q200" s="111"/>
-    </row>
-    <row r="201" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="27">
         <v>197</v>
       </c>
@@ -65540,13 +64721,8 @@
       <c r="N201" s="20">
         <v>817.4799999999999</v>
       </c>
-      <c r="O201" s="91">
-        <v>0</v>
-      </c>
-      <c r="P201" s="9"/>
-      <c r="Q201" s="111"/>
-    </row>
-    <row r="202" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>198</v>
       </c>
@@ -65593,13 +64769,8 @@
       <c r="N202" s="19">
         <v>64.2</v>
       </c>
-      <c r="O202" s="91">
-        <v>0</v>
-      </c>
-      <c r="P202" s="9"/>
-      <c r="Q202" s="111"/>
-    </row>
-    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="27">
         <v>199</v>
       </c>
@@ -65646,13 +64817,8 @@
       <c r="N203" s="20">
         <v>128.4</v>
       </c>
-      <c r="O203" s="91">
-        <v>0</v>
-      </c>
-      <c r="P203" s="9"/>
-      <c r="Q203" s="111"/>
-    </row>
-    <row r="204" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>200</v>
       </c>
@@ -65699,13 +64865,8 @@
       <c r="N204" s="19">
         <v>132.68</v>
       </c>
-      <c r="O204" s="91">
-        <v>0</v>
-      </c>
-      <c r="P204" s="9"/>
-      <c r="Q204" s="111"/>
-    </row>
-    <row r="205" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="27">
         <v>201</v>
       </c>
@@ -65752,13 +64913,8 @@
       <c r="N205" s="20">
         <v>42.8</v>
       </c>
-      <c r="O205" s="91">
-        <v>0</v>
-      </c>
-      <c r="P205" s="9"/>
-      <c r="Q205" s="111"/>
-    </row>
-    <row r="206" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>202</v>
       </c>
@@ -65805,13 +64961,8 @@
       <c r="N206" s="19">
         <v>299.59999999999991</v>
       </c>
-      <c r="O206" s="91">
-        <v>0</v>
-      </c>
-      <c r="P206" s="9"/>
-      <c r="Q206" s="117"/>
-    </row>
-    <row r="207" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="27">
         <v>203</v>
       </c>
@@ -65858,13 +65009,8 @@
       <c r="N207" s="20">
         <v>509.32</v>
       </c>
-      <c r="O207" s="91">
-        <v>0</v>
-      </c>
-      <c r="P207" s="9"/>
-      <c r="Q207" s="111"/>
-    </row>
-    <row r="208" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>204</v>
       </c>
@@ -65911,13 +65057,8 @@
       <c r="N208" s="19">
         <v>77.040000000000006</v>
       </c>
-      <c r="O208" s="91">
-        <v>0</v>
-      </c>
-      <c r="P208" s="20"/>
-      <c r="Q208" s="111"/>
-    </row>
-    <row r="209" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="27">
         <v>205</v>
       </c>
@@ -65964,13 +65105,8 @@
       <c r="N209" s="20">
         <v>0</v>
       </c>
-      <c r="O209" s="91">
-        <v>0</v>
-      </c>
-      <c r="P209" s="9"/>
-      <c r="Q209" s="111"/>
-    </row>
-    <row r="210" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>206</v>
       </c>
@@ -66017,13 +65153,8 @@
       <c r="N210" s="19">
         <v>749</v>
       </c>
-      <c r="O210" s="91">
-        <v>0</v>
-      </c>
-      <c r="P210" s="9"/>
-      <c r="Q210" s="111"/>
-    </row>
-    <row r="211" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="27">
         <v>207</v>
       </c>
@@ -66070,13 +65201,8 @@
       <c r="N211" s="20">
         <v>196.88</v>
       </c>
-      <c r="O211" s="91">
-        <v>0</v>
-      </c>
-      <c r="P211" s="9"/>
-      <c r="Q211" s="111"/>
-    </row>
-    <row r="212" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>208</v>
       </c>
@@ -66123,12 +65249,8 @@
       <c r="N212" s="19">
         <v>0</v>
       </c>
-      <c r="O212" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q212" s="111"/>
-    </row>
-    <row r="213" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="27">
         <v>209</v>
       </c>
@@ -66175,12 +65297,8 @@
       <c r="N213" s="20">
         <v>145.52000000000001</v>
       </c>
-      <c r="O213" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q213" s="111"/>
-    </row>
-    <row r="214" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>210</v>
       </c>
@@ -66227,12 +65345,8 @@
       <c r="N214" s="19">
         <v>188.32</v>
       </c>
-      <c r="O214" s="91">
-        <v>0</v>
-      </c>
-      <c r="P214" s="9"/>
-    </row>
-    <row r="215" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="27">
         <v>211</v>
       </c>
@@ -66279,12 +65393,8 @@
       <c r="N215" s="20">
         <v>2003.04</v>
       </c>
-      <c r="O215" s="91">
-        <v>0</v>
-      </c>
-      <c r="P215" s="9"/>
-    </row>
-    <row r="216" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>212</v>
       </c>
@@ -66331,12 +65441,8 @@
       <c r="N216" s="19">
         <v>265.36</v>
       </c>
-      <c r="O216" s="91">
-        <v>0</v>
-      </c>
-      <c r="P216" s="9"/>
-    </row>
-    <row r="217" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="27">
         <v>213</v>
       </c>
@@ -66383,12 +65489,8 @@
       <c r="N217" s="20">
         <v>11855.6</v>
       </c>
-      <c r="O217" s="91">
-        <v>0</v>
-      </c>
-      <c r="P217" s="9"/>
-    </row>
-    <row r="218" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>214</v>
       </c>
@@ -66435,12 +65537,8 @@
       <c r="N218" s="19">
         <v>24485.880000000005</v>
       </c>
-      <c r="O218" s="91">
-        <v>0</v>
-      </c>
-      <c r="P218" s="9"/>
-    </row>
-    <row r="219" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="27">
         <v>215</v>
       </c>
@@ -66487,12 +65585,8 @@
       <c r="N219" s="20">
         <v>29.96</v>
       </c>
-      <c r="O219" s="91">
-        <v>0</v>
-      </c>
-      <c r="P219" s="9"/>
-    </row>
-    <row r="220" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>216</v>
       </c>
@@ -66539,11 +65633,8 @@
       <c r="N220" s="19">
         <v>1450.9199999999998</v>
       </c>
-      <c r="O220" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="27">
         <v>217</v>
       </c>
@@ -66590,12 +65681,8 @@
       <c r="N221" s="20">
         <v>462.24000000000007</v>
       </c>
-      <c r="O221" s="91">
-        <v>0</v>
-      </c>
-      <c r="P221" s="9"/>
-    </row>
-    <row r="222" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>218</v>
       </c>
@@ -66642,12 +65729,8 @@
       <c r="N222" s="19">
         <v>24293.28000000001</v>
       </c>
-      <c r="O222" s="91">
-        <v>0</v>
-      </c>
-      <c r="P222" s="9"/>
-    </row>
-    <row r="223" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="27">
         <v>219</v>
       </c>
@@ -66694,11 +65777,8 @@
       <c r="N223" s="20">
         <v>487.92</v>
       </c>
-      <c r="O223" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>220</v>
       </c>
@@ -66745,11 +65825,8 @@
       <c r="N224" s="19">
         <v>25.68</v>
       </c>
-      <c r="O224" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="27">
         <v>221</v>
       </c>
@@ -66796,12 +65873,8 @@
       <c r="N225" s="20">
         <v>1236.9199999999994</v>
       </c>
-      <c r="O225" s="91">
-        <v>0</v>
-      </c>
-      <c r="P225" s="9"/>
-    </row>
-    <row r="226" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>222</v>
       </c>
@@ -66848,12 +65921,8 @@
       <c r="N226" s="19">
         <v>2242.7200000000003</v>
       </c>
-      <c r="O226" s="91">
-        <v>0</v>
-      </c>
-      <c r="P226" s="9"/>
-    </row>
-    <row r="227" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="27">
         <v>223</v>
       </c>
@@ -66900,11 +65969,8 @@
       <c r="N227" s="20">
         <v>303.88</v>
       </c>
-      <c r="O227" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>224</v>
       </c>
@@ -66951,12 +66017,8 @@
       <c r="N228" s="19">
         <v>7468.6000000000013</v>
       </c>
-      <c r="O228" s="91">
-        <v>0</v>
-      </c>
-      <c r="P228" s="9"/>
-    </row>
-    <row r="229" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="27">
         <v>225</v>
       </c>
@@ -67003,12 +66065,8 @@
       <c r="N229" s="20">
         <v>7327.3600000000015</v>
       </c>
-      <c r="O229" s="91">
-        <v>0</v>
-      </c>
-      <c r="P229" s="9"/>
-    </row>
-    <row r="230" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>226</v>
       </c>
@@ -67055,12 +66113,8 @@
       <c r="N230" s="19">
         <v>1917.44</v>
       </c>
-      <c r="O230" s="91">
-        <v>0</v>
-      </c>
-      <c r="P230" s="9"/>
-    </row>
-    <row r="231" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="27">
         <v>227</v>
       </c>
@@ -67107,12 +66161,8 @@
       <c r="N231" s="20">
         <v>496.48</v>
       </c>
-      <c r="O231" s="91">
-        <v>0</v>
-      </c>
-      <c r="P231" s="9"/>
-    </row>
-    <row r="232" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>228</v>
       </c>
@@ -67159,13 +66209,9 @@
       <c r="N232" s="19">
         <v>436.56</v>
       </c>
-      <c r="O232" s="91">
-        <v>0</v>
-      </c>
-      <c r="P232" s="9"/>
-      <c r="S232" s="25"/>
-    </row>
-    <row r="233" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O232" s="25"/>
+    </row>
+    <row r="233" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="27">
         <v>229</v>
       </c>
@@ -67212,12 +66258,8 @@
       <c r="N233" s="20">
         <v>0</v>
       </c>
-      <c r="O233" s="91">
-        <v>0</v>
-      </c>
-      <c r="P233" s="9"/>
-    </row>
-    <row r="234" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>230</v>
       </c>
@@ -67264,12 +66306,8 @@
       <c r="N234" s="19">
         <v>3586.6400000000003</v>
       </c>
-      <c r="O234" s="91">
-        <v>0</v>
-      </c>
-      <c r="P234" s="9"/>
-    </row>
-    <row r="235" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="27">
         <v>231</v>
       </c>
@@ -67316,12 +66354,8 @@
       <c r="N235" s="20">
         <v>436.55999999999995</v>
       </c>
-      <c r="O235" s="91">
-        <v>0</v>
-      </c>
-      <c r="P235" s="9"/>
-    </row>
-    <row r="236" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>232</v>
       </c>
@@ -67368,12 +66402,8 @@
       <c r="N236" s="19">
         <v>16567.880000000005</v>
       </c>
-      <c r="O236" s="91">
-        <v>0</v>
-      </c>
-      <c r="P236" s="9"/>
-    </row>
-    <row r="237" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="27">
         <v>233</v>
       </c>
@@ -67420,12 +66450,8 @@
       <c r="N237" s="20">
         <v>5016.16</v>
       </c>
-      <c r="O237" s="91">
-        <v>0</v>
-      </c>
-      <c r="P237" s="9"/>
-    </row>
-    <row r="238" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>234</v>
       </c>
@@ -67472,12 +66498,8 @@
       <c r="N238" s="19">
         <v>2422.4799999999991</v>
       </c>
-      <c r="O238" s="91">
-        <v>0</v>
-      </c>
-      <c r="P238" s="9"/>
-    </row>
-    <row r="239" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="27">
         <v>235</v>
       </c>
@@ -67524,12 +66546,8 @@
       <c r="N239" s="20">
         <v>3843.4400000000019</v>
       </c>
-      <c r="O239" s="91">
-        <v>0</v>
-      </c>
-      <c r="P239" s="9"/>
-    </row>
-    <row r="240" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>236</v>
       </c>
@@ -67576,12 +66594,8 @@
       <c r="N240" s="19">
         <v>303.88</v>
       </c>
-      <c r="O240" s="91">
-        <v>0</v>
-      </c>
-      <c r="P240" s="9"/>
-    </row>
-    <row r="241" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="27">
         <v>237</v>
       </c>
@@ -67628,12 +66642,8 @@
       <c r="N241" s="20">
         <v>11431.880000000003</v>
       </c>
-      <c r="O241" s="91">
-        <v>0</v>
-      </c>
-      <c r="P241" s="9"/>
-    </row>
-    <row r="242" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>238</v>
       </c>
@@ -67680,12 +66690,8 @@
       <c r="N242" s="19">
         <v>3445.400000000001</v>
       </c>
-      <c r="O242" s="91">
-        <v>0</v>
-      </c>
-      <c r="P242" s="9"/>
-    </row>
-    <row r="243" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="27">
         <v>239</v>
       </c>
@@ -67732,12 +66738,8 @@
       <c r="N243" s="20">
         <v>4498.2800000000007</v>
       </c>
-      <c r="O243" s="91">
-        <v>0</v>
-      </c>
-      <c r="P243" s="9"/>
-    </row>
-    <row r="244" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>240</v>
       </c>
@@ -67784,12 +66786,8 @@
       <c r="N244" s="19">
         <v>5602.5199999999995</v>
       </c>
-      <c r="O244" s="91">
-        <v>0</v>
-      </c>
-      <c r="P244" s="9"/>
-    </row>
-    <row r="245" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="27">
         <v>241</v>
       </c>
@@ -67836,12 +66834,8 @@
       <c r="N245" s="20">
         <v>505.03999999999996</v>
       </c>
-      <c r="O245" s="91">
-        <v>0</v>
-      </c>
-      <c r="P245" s="9"/>
-    </row>
-    <row r="246" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>242</v>
       </c>
@@ -67888,12 +66882,8 @@
       <c r="N246" s="19">
         <v>115.56</v>
       </c>
-      <c r="O246" s="91">
-        <v>0</v>
-      </c>
-      <c r="P246" s="9"/>
-    </row>
-    <row r="247" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="27">
         <v>243</v>
       </c>
@@ -67940,12 +66930,8 @@
       <c r="N247" s="20">
         <v>7365.88</v>
       </c>
-      <c r="O247" s="91">
-        <v>0</v>
-      </c>
-      <c r="P247" s="9"/>
-    </row>
-    <row r="248" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>244</v>
       </c>
@@ -67992,13 +66978,8 @@
       <c r="N248" s="19">
         <v>7100.5199999999995</v>
       </c>
-      <c r="O248" s="91">
-        <v>0</v>
-      </c>
-      <c r="P248" s="9"/>
-      <c r="Q248" s="113"/>
-    </row>
-    <row r="249" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="27">
         <v>245</v>
       </c>
@@ -68045,12 +67026,8 @@
       <c r="N249" s="20">
         <v>7840.9599999999991</v>
       </c>
-      <c r="O249" s="91">
-        <v>0</v>
-      </c>
-      <c r="P249" s="9"/>
-    </row>
-    <row r="250" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>246</v>
       </c>
@@ -68097,12 +67074,8 @@
       <c r="N250" s="19">
         <v>132.68</v>
       </c>
-      <c r="O250" s="91">
-        <v>0</v>
-      </c>
-      <c r="P250" s="9"/>
-    </row>
-    <row r="251" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="37"/>
       <c r="B251" s="37"/>
       <c r="C251" s="46"/>
@@ -68129,33 +67102,26 @@
         <f>SUM(N5:N250)</f>
         <v>1131413.72</v>
       </c>
-      <c r="O251" s="118"/>
-      <c r="P251" s="119">
-        <f>SUM(P5:P250)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F252" s="42"/>
       <c r="H252" s="42"/>
       <c r="L252" s="43">
         <f>SUM(G251+L251)</f>
         <v>1131413.72</v>
       </c>
-      <c r="M252" s="6">
-        <f>SUM(N251-P251)</f>
-        <v>1131413.72</v>
+      <c r="M252" s="6" t="e">
+        <f>SUM(N251-#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="N252" s="1"/>
-      <c r="P252" s="25"/>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H253" s="42"/>
       <c r="M253" s="25"/>
       <c r="N253" s="9"/>
-      <c r="Q253" s="113"/>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
       <c r="M254" s="8"/>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.4">
@@ -68194,7 +67160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA290"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -68228,24 +67194,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>3412</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -68258,7 +67224,7 @@
       <c r="D2" s="56"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
-      <c r="G2" s="129"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
       <c r="J2" s="53"/>
@@ -68278,120 +67244,120 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="151" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="160" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="158">
+      <c r="R3" s="155">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="152" t="s">
+      <c r="S3" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="153" t="s">
+      <c r="U3" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="164"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="153"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="166"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
         <v>1</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>3414</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="148" t="s">
         <v>2230</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="150" t="s">
         <v>2231</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="150" t="s">
         <v>2216</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="121" t="s">
         <v>3435</v>
       </c>
-      <c r="H5" s="131">
+      <c r="H5" s="120">
         <v>4182.5</v>
       </c>
       <c r="I5" s="103">
@@ -68433,19 +67399,19 @@
       <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>3417</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="132" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="121" t="s">
         <v>3163</v>
       </c>
-      <c r="H6" s="131">
+      <c r="H6" s="120">
         <v>2359</v>
       </c>
       <c r="I6" s="103">
@@ -68487,21 +67453,21 @@
       <c r="A7" s="51">
         <v>3</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>3418</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="149" t="s">
         <v>2232</v>
       </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="132" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="121" t="s">
         <v>3435</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="120">
         <v>1211</v>
       </c>
       <c r="I7" s="103">
@@ -68544,19 +67510,19 @@
       <c r="A8" s="51">
         <v>4</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>3419</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="132" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="121" t="s">
         <v>3163</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="120">
         <v>2779</v>
       </c>
       <c r="I8" s="103">
@@ -68599,7 +67565,7 @@
       <c r="A9" s="51">
         <v>5</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -68608,12 +67574,12 @@
       <c r="D9" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="132" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="121" t="s">
         <v>3202</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="120">
         <v>2635.5</v>
       </c>
       <c r="I9" s="103">
@@ -68654,7 +67620,7 @@
       <c r="A10" s="51">
         <v>6</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -68663,12 +67629,12 @@
       <c r="D10" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="132" t="s">
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="121" t="s">
         <v>3202</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="120">
         <v>3125.5</v>
       </c>
       <c r="I10" s="103">
@@ -68708,7 +67674,7 @@
       <c r="A11" s="51">
         <v>7</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -68723,10 +67689,10 @@
       <c r="F11" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="121" t="s">
         <v>3236</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="120">
         <v>94.49</v>
       </c>
       <c r="I11" s="103">
@@ -68768,7 +67734,7 @@
       <c r="A12" s="51">
         <v>8</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -68783,10 +67749,10 @@
       <c r="F12" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="G12" s="132" t="s">
+      <c r="G12" s="121" t="s">
         <v>3236</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="120">
         <v>203</v>
       </c>
       <c r="I12" s="103">
@@ -68828,7 +67794,7 @@
       <c r="A13" s="51">
         <v>9</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -68843,10 +67809,10 @@
       <c r="F13" s="64" t="s">
         <v>983</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="121" t="s">
         <v>3200</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="120">
         <v>472.5</v>
       </c>
       <c r="I13" s="103">
@@ -68886,7 +67852,7 @@
       <c r="A14" s="51">
         <v>10</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -68901,10 +67867,10 @@
       <c r="F14" s="64" t="s">
         <v>985</v>
       </c>
-      <c r="G14" s="132" t="s">
+      <c r="G14" s="121" t="s">
         <v>3200</v>
       </c>
-      <c r="H14" s="131">
+      <c r="H14" s="120">
         <v>409.5</v>
       </c>
       <c r="I14" s="103">
@@ -68944,7 +67910,7 @@
       <c r="A15" s="51">
         <v>11</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -68959,10 +67925,10 @@
       <c r="F15" s="64" t="s">
         <v>1805</v>
       </c>
-      <c r="G15" s="132" t="s">
+      <c r="G15" s="121" t="s">
         <v>3200</v>
       </c>
-      <c r="H15" s="131">
+      <c r="H15" s="120">
         <v>91</v>
       </c>
       <c r="I15" s="103">
@@ -69003,7 +67969,7 @@
       <c r="A16" s="51">
         <v>12</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -69018,10 +67984,10 @@
       <c r="F16" s="64" t="s">
         <v>988</v>
       </c>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="121" t="s">
         <v>3200</v>
       </c>
-      <c r="H16" s="131">
+      <c r="H16" s="120">
         <v>433.99</v>
       </c>
       <c r="I16" s="103">
@@ -69063,7 +68029,7 @@
       <c r="A17" s="51">
         <v>13</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -69078,10 +68044,10 @@
       <c r="F17" s="64" t="s">
         <v>1453</v>
       </c>
-      <c r="G17" s="132" t="s">
+      <c r="G17" s="121" t="s">
         <v>3309</v>
       </c>
-      <c r="H17" s="131">
+      <c r="H17" s="120">
         <v>902.98</v>
       </c>
       <c r="I17" s="103">
@@ -69123,7 +68089,7 @@
       <c r="A18" s="51">
         <v>14</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -69138,10 +68104,10 @@
       <c r="F18" s="64" t="s">
         <v>1449</v>
       </c>
-      <c r="G18" s="132" t="s">
+      <c r="G18" s="121" t="s">
         <v>3180</v>
       </c>
-      <c r="H18" s="131">
+      <c r="H18" s="120">
         <v>45.47</v>
       </c>
       <c r="I18" s="103">
@@ -69181,7 +68147,7 @@
       <c r="A19" s="51">
         <v>15</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -69196,10 +68162,10 @@
       <c r="F19" s="64" t="s">
         <v>682</v>
       </c>
-      <c r="G19" s="132" t="s">
+      <c r="G19" s="121" t="s">
         <v>3202</v>
       </c>
-      <c r="H19" s="131">
+      <c r="H19" s="120">
         <v>147</v>
       </c>
       <c r="I19" s="103">
@@ -69241,7 +68207,7 @@
       <c r="A20" s="51">
         <v>16</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -69256,10 +68222,10 @@
       <c r="F20" s="64" t="s">
         <v>1336</v>
       </c>
-      <c r="G20" s="132" t="s">
+      <c r="G20" s="121" t="s">
         <v>3202</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="120">
         <v>220.5</v>
       </c>
       <c r="I20" s="103">
@@ -69300,7 +68266,7 @@
       <c r="A21" s="51">
         <v>17</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -69315,10 +68281,10 @@
       <c r="F21" s="64" t="s">
         <v>748</v>
       </c>
-      <c r="G21" s="132" t="s">
+      <c r="G21" s="121" t="s">
         <v>3204</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="120">
         <v>2453.4699999999998</v>
       </c>
       <c r="I21" s="103">
@@ -69359,7 +68325,7 @@
       <c r="A22" s="51">
         <v>18</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="122" t="s">
         <v>3434</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -69374,10 +68340,10 @@
       <c r="F22" s="64" t="s">
         <v>3416</v>
       </c>
-      <c r="G22" s="132" t="s">
+      <c r="G22" s="121" t="s">
         <v>3202</v>
       </c>
-      <c r="H22" s="131">
+      <c r="H22" s="120">
         <v>77</v>
       </c>
       <c r="I22" s="103">
@@ -69739,13 +68705,13 @@
       <c r="C28" s="26" t="s">
         <v>3450</v>
       </c>
-      <c r="D28" s="159" t="s">
+      <c r="D28" s="149" t="s">
         <v>1770</v>
       </c>
-      <c r="E28" s="160" t="s">
+      <c r="E28" s="150" t="s">
         <v>1771</v>
       </c>
-      <c r="F28" s="160" t="s">
+      <c r="F28" s="150" t="s">
         <v>1772</v>
       </c>
       <c r="G28" s="101" t="s">
@@ -69780,7 +68746,7 @@
         <f t="shared" si="3"/>
         <v>18.72</v>
       </c>
-      <c r="P28" s="165">
+      <c r="P28" s="137">
         <v>37.5</v>
       </c>
       <c r="Q28" s="67"/>
@@ -69799,9 +68765,9 @@
       <c r="C29" s="26" t="s">
         <v>3451</v>
       </c>
-      <c r="D29" s="159"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="101" t="s">
         <v>3</v>
       </c>
@@ -69834,7 +68800,7 @@
         <f t="shared" si="3"/>
         <v>18.72</v>
       </c>
-      <c r="P29" s="166"/>
+      <c r="P29" s="138"/>
       <c r="Q29" s="67"/>
       <c r="R29" s="73"/>
       <c r="S29" s="73"/>
@@ -72137,13 +71103,13 @@
       <c r="C69" s="26" t="s">
         <v>3501</v>
       </c>
-      <c r="D69" s="159" t="s">
+      <c r="D69" s="149" t="s">
         <v>701</v>
       </c>
-      <c r="E69" s="160" t="s">
+      <c r="E69" s="150" t="s">
         <v>702</v>
       </c>
-      <c r="F69" s="160" t="s">
+      <c r="F69" s="150" t="s">
         <v>703</v>
       </c>
       <c r="G69" s="101" t="s">
@@ -72178,7 +71144,7 @@
         <f t="shared" ref="O69:O132" si="8">ROUNDDOWN(H69+I69+M69,2)</f>
         <v>86.13</v>
       </c>
-      <c r="P69" s="165">
+      <c r="P69" s="137">
         <v>378.25</v>
       </c>
       <c r="Q69" s="74"/>
@@ -72197,9 +71163,9 @@
       <c r="C70" s="26" t="s">
         <v>3502</v>
       </c>
-      <c r="D70" s="159"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
+      <c r="D70" s="149"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="150"/>
       <c r="G70" s="101" t="s">
         <v>3435</v>
       </c>
@@ -72232,7 +71198,7 @@
         <f t="shared" si="8"/>
         <v>104.86</v>
       </c>
-      <c r="P70" s="167"/>
+      <c r="P70" s="145"/>
       <c r="Q70" s="74"/>
       <c r="R70" s="71"/>
       <c r="S70" s="71"/>
@@ -72247,9 +71213,9 @@
       <c r="C71" s="26" t="s">
         <v>3503</v>
       </c>
-      <c r="D71" s="159"/>
-      <c r="E71" s="160"/>
-      <c r="F71" s="160"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="150"/>
       <c r="G71" s="101" t="s">
         <v>3163</v>
       </c>
@@ -72282,7 +71248,7 @@
         <f t="shared" si="8"/>
         <v>86.13</v>
       </c>
-      <c r="P71" s="167"/>
+      <c r="P71" s="145"/>
       <c r="Q71" s="74"/>
       <c r="R71" s="73"/>
       <c r="S71" s="73"/>
@@ -72297,9 +71263,9 @@
       <c r="C72" s="26" t="s">
         <v>3504</v>
       </c>
-      <c r="D72" s="159"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="160"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="150"/>
+      <c r="F72" s="150"/>
       <c r="G72" s="101" t="s">
         <v>3202</v>
       </c>
@@ -72332,7 +71298,7 @@
         <f t="shared" si="8"/>
         <v>101.11</v>
       </c>
-      <c r="P72" s="166"/>
+      <c r="P72" s="138"/>
       <c r="Q72" s="74"/>
       <c r="R72" s="71"/>
       <c r="S72" s="71"/>
@@ -72418,7 +71384,7 @@
       <c r="C74" s="26" t="s">
         <v>3525</v>
       </c>
-      <c r="D74" s="130" t="s">
+      <c r="D74" s="119" t="s">
         <v>1222</v>
       </c>
       <c r="E74" s="64" t="s">
@@ -72479,7 +71445,7 @@
       <c r="C75" s="26" t="s">
         <v>3526</v>
       </c>
-      <c r="D75" s="130" t="s">
+      <c r="D75" s="119" t="s">
         <v>1225</v>
       </c>
       <c r="E75" s="64" t="s">
@@ -72537,7 +71503,7 @@
       <c r="C76" s="26" t="s">
         <v>3527</v>
       </c>
-      <c r="D76" s="130" t="s">
+      <c r="D76" s="119" t="s">
         <v>1216</v>
       </c>
       <c r="E76" s="64" t="s">
@@ -72596,7 +71562,7 @@
       <c r="C77" s="26" t="s">
         <v>3528</v>
       </c>
-      <c r="D77" s="130" t="s">
+      <c r="D77" s="119" t="s">
         <v>1210</v>
       </c>
       <c r="E77" s="64" t="s">
@@ -72656,7 +71622,7 @@
       <c r="C78" s="26" t="s">
         <v>3529</v>
       </c>
-      <c r="D78" s="130" t="s">
+      <c r="D78" s="119" t="s">
         <v>1197</v>
       </c>
       <c r="E78" s="64" t="s">
@@ -72715,7 +71681,7 @@
       <c r="C79" s="26" t="s">
         <v>3530</v>
       </c>
-      <c r="D79" s="130" t="s">
+      <c r="D79" s="119" t="s">
         <v>1179</v>
       </c>
       <c r="E79" s="64" t="s">
@@ -72775,7 +71741,7 @@
       <c r="C80" s="26" t="s">
         <v>3531</v>
       </c>
-      <c r="D80" s="130" t="s">
+      <c r="D80" s="119" t="s">
         <v>1160</v>
       </c>
       <c r="E80" s="64" t="s">
@@ -72833,7 +71799,7 @@
       <c r="C81" s="26" t="s">
         <v>3532</v>
       </c>
-      <c r="D81" s="130" t="s">
+      <c r="D81" s="119" t="s">
         <v>1090</v>
       </c>
       <c r="E81" s="64" t="s">
@@ -72889,7 +71855,7 @@
       <c r="C82" s="26" t="s">
         <v>3533</v>
       </c>
-      <c r="D82" s="130" t="s">
+      <c r="D82" s="119" t="s">
         <v>2157</v>
       </c>
       <c r="E82" s="64" t="s">
@@ -72945,7 +71911,7 @@
       <c r="C83" s="26" t="s">
         <v>3534</v>
       </c>
-      <c r="D83" s="130" t="s">
+      <c r="D83" s="119" t="s">
         <v>1093</v>
       </c>
       <c r="E83" s="64" t="s">
@@ -73001,7 +71967,7 @@
       <c r="C84" s="26" t="s">
         <v>3535</v>
       </c>
-      <c r="D84" s="130" t="s">
+      <c r="D84" s="119" t="s">
         <v>1096</v>
       </c>
       <c r="E84" s="64" t="s">
@@ -73061,7 +72027,7 @@
       <c r="C85" s="26" t="s">
         <v>3536</v>
       </c>
-      <c r="D85" s="130" t="s">
+      <c r="D85" s="119" t="s">
         <v>1073</v>
       </c>
       <c r="E85" s="64" t="s">
@@ -73123,7 +72089,7 @@
       <c r="C86" s="26" t="s">
         <v>3537</v>
       </c>
-      <c r="D86" s="130" t="s">
+      <c r="D86" s="119" t="s">
         <v>1076</v>
       </c>
       <c r="E86" s="64" t="s">
@@ -73183,7 +72149,7 @@
       <c r="C87" s="26" t="s">
         <v>3538</v>
       </c>
-      <c r="D87" s="130" t="s">
+      <c r="D87" s="119" t="s">
         <v>1078</v>
       </c>
       <c r="E87" s="64" t="s">
@@ -73239,7 +72205,7 @@
       <c r="C88" s="26" t="s">
         <v>3539</v>
       </c>
-      <c r="D88" s="130" t="s">
+      <c r="D88" s="119" t="s">
         <v>1080</v>
       </c>
       <c r="E88" s="64" t="s">
@@ -73299,7 +72265,7 @@
       <c r="C89" s="26" t="s">
         <v>3540</v>
       </c>
-      <c r="D89" s="130" t="s">
+      <c r="D89" s="119" t="s">
         <v>1082</v>
       </c>
       <c r="E89" s="64" t="s">
@@ -73359,7 +72325,7 @@
       <c r="C90" s="26" t="s">
         <v>3541</v>
       </c>
-      <c r="D90" s="130" t="s">
+      <c r="D90" s="119" t="s">
         <v>1085</v>
       </c>
       <c r="E90" s="64" t="s">
@@ -73415,7 +72381,7 @@
       <c r="C91" s="26" t="s">
         <v>3542</v>
       </c>
-      <c r="D91" s="130" t="s">
+      <c r="D91" s="119" t="s">
         <v>1088</v>
       </c>
       <c r="E91" s="64" t="s">
@@ -73471,7 +72437,7 @@
       <c r="C92" s="26" t="s">
         <v>3543</v>
       </c>
-      <c r="D92" s="130" t="s">
+      <c r="D92" s="119" t="s">
         <v>1056</v>
       </c>
       <c r="E92" s="64" t="s">
@@ -73527,7 +72493,7 @@
       <c r="C93" s="26" t="s">
         <v>3544</v>
       </c>
-      <c r="D93" s="130" t="s">
+      <c r="D93" s="119" t="s">
         <v>1050</v>
       </c>
       <c r="E93" s="64" t="s">
@@ -73587,7 +72553,7 @@
       <c r="C94" s="26" t="s">
         <v>3545</v>
       </c>
-      <c r="D94" s="130" t="s">
+      <c r="D94" s="119" t="s">
         <v>1317</v>
       </c>
       <c r="E94" s="64" t="s">
@@ -73643,13 +72609,13 @@
       <c r="C95" s="26" t="s">
         <v>3546</v>
       </c>
-      <c r="D95" s="169" t="s">
+      <c r="D95" s="146" t="s">
         <v>1302</v>
       </c>
-      <c r="E95" s="171" t="s">
+      <c r="E95" s="134" t="s">
         <v>1303</v>
       </c>
-      <c r="F95" s="171" t="s">
+      <c r="F95" s="134" t="s">
         <v>1304</v>
       </c>
       <c r="G95" s="101" t="s">
@@ -73684,7 +72650,7 @@
         <f t="shared" si="8"/>
         <v>93.62</v>
       </c>
-      <c r="P95" s="165">
+      <c r="P95" s="137">
         <v>146.25</v>
       </c>
       <c r="Q95" s="67"/>
@@ -73702,9 +72668,9 @@
       <c r="C96" s="26" t="s">
         <v>3547</v>
       </c>
-      <c r="D96" s="170"/>
-      <c r="E96" s="172"/>
-      <c r="F96" s="172"/>
+      <c r="D96" s="147"/>
+      <c r="E96" s="136"/>
+      <c r="F96" s="136"/>
       <c r="G96" s="101" t="s">
         <v>3</v>
       </c>
@@ -73737,7 +72703,7 @@
         <f t="shared" si="8"/>
         <v>52.43</v>
       </c>
-      <c r="P96" s="166"/>
+      <c r="P96" s="138"/>
       <c r="Q96" s="67"/>
       <c r="R96" s="73"/>
       <c r="S96" s="73"/>
@@ -73753,13 +72719,13 @@
       <c r="C97" s="26" t="s">
         <v>3548</v>
       </c>
-      <c r="D97" s="130" t="s">
+      <c r="D97" s="119" t="s">
         <v>1270</v>
       </c>
-      <c r="E97" s="134" t="s">
+      <c r="E97" s="123" t="s">
         <v>1271</v>
       </c>
-      <c r="F97" s="135" t="s">
+      <c r="F97" s="124" t="s">
         <v>1272</v>
       </c>
       <c r="G97" s="101" t="s">
@@ -73812,13 +72778,13 @@
       <c r="C98" s="26" t="s">
         <v>3549</v>
       </c>
-      <c r="D98" s="130" t="s">
+      <c r="D98" s="119" t="s">
         <v>1259</v>
       </c>
-      <c r="E98" s="134" t="s">
+      <c r="E98" s="123" t="s">
         <v>1260</v>
       </c>
-      <c r="F98" s="135" t="s">
+      <c r="F98" s="124" t="s">
         <v>1248</v>
       </c>
       <c r="G98" s="101" t="s">
@@ -73868,13 +72834,13 @@
       <c r="C99" s="26" t="s">
         <v>3550</v>
       </c>
-      <c r="D99" s="130" t="s">
+      <c r="D99" s="119" t="s">
         <v>1661</v>
       </c>
-      <c r="E99" s="135" t="s">
+      <c r="E99" s="124" t="s">
         <v>1662</v>
       </c>
-      <c r="F99" s="135" t="s">
+      <c r="F99" s="124" t="s">
         <v>1663</v>
       </c>
       <c r="G99" s="101" t="s">
@@ -73928,13 +72894,13 @@
       <c r="C100" s="26" t="s">
         <v>3551</v>
       </c>
-      <c r="D100" s="130" t="s">
+      <c r="D100" s="119" t="s">
         <v>1652</v>
       </c>
-      <c r="E100" s="135" t="s">
+      <c r="E100" s="124" t="s">
         <v>1653</v>
       </c>
-      <c r="F100" s="135" t="s">
+      <c r="F100" s="124" t="s">
         <v>1654</v>
       </c>
       <c r="G100" s="101" t="s">
@@ -73988,13 +72954,13 @@
       <c r="C101" s="26" t="s">
         <v>3552</v>
       </c>
-      <c r="D101" s="130" t="s">
+      <c r="D101" s="119" t="s">
         <v>1641</v>
       </c>
-      <c r="E101" s="135" t="s">
+      <c r="E101" s="124" t="s">
         <v>1642</v>
       </c>
-      <c r="F101" s="135" t="s">
+      <c r="F101" s="124" t="s">
         <v>1643</v>
       </c>
       <c r="G101" s="101" t="s">
@@ -74044,13 +73010,13 @@
       <c r="C102" s="26" t="s">
         <v>3553</v>
       </c>
-      <c r="D102" s="130" t="s">
+      <c r="D102" s="119" t="s">
         <v>1625</v>
       </c>
-      <c r="E102" s="135" t="s">
+      <c r="E102" s="124" t="s">
         <v>1616</v>
       </c>
-      <c r="F102" s="135" t="s">
+      <c r="F102" s="124" t="s">
         <v>1626</v>
       </c>
       <c r="G102" s="101" t="s">
@@ -74103,13 +73069,13 @@
       <c r="C103" s="26" t="s">
         <v>3554</v>
       </c>
-      <c r="D103" s="130" t="s">
+      <c r="D103" s="119" t="s">
         <v>1627</v>
       </c>
-      <c r="E103" s="135" t="s">
+      <c r="E103" s="124" t="s">
         <v>1616</v>
       </c>
-      <c r="F103" s="135" t="s">
+      <c r="F103" s="124" t="s">
         <v>1628</v>
       </c>
       <c r="G103" s="101" t="s">
@@ -74159,13 +73125,13 @@
       <c r="C104" s="26" t="s">
         <v>3555</v>
       </c>
-      <c r="D104" s="130" t="s">
+      <c r="D104" s="119" t="s">
         <v>1618</v>
       </c>
-      <c r="E104" s="135" t="s">
+      <c r="E104" s="124" t="s">
         <v>1616</v>
       </c>
-      <c r="F104" s="135" t="s">
+      <c r="F104" s="124" t="s">
         <v>1619</v>
       </c>
       <c r="G104" s="101" t="s">
@@ -74217,13 +73183,13 @@
       <c r="C105" s="26" t="s">
         <v>3556</v>
       </c>
-      <c r="D105" s="130" t="s">
+      <c r="D105" s="119" t="s">
         <v>1607</v>
       </c>
-      <c r="E105" s="135" t="s">
+      <c r="E105" s="124" t="s">
         <v>1608</v>
       </c>
-      <c r="F105" s="135" t="s">
+      <c r="F105" s="124" t="s">
         <v>1609</v>
       </c>
       <c r="G105" s="101" t="s">
@@ -74274,13 +73240,13 @@
       <c r="C106" s="26" t="s">
         <v>3557</v>
       </c>
-      <c r="D106" s="130" t="s">
+      <c r="D106" s="119" t="s">
         <v>1598</v>
       </c>
-      <c r="E106" s="135" t="s">
+      <c r="E106" s="124" t="s">
         <v>1599</v>
       </c>
-      <c r="F106" s="135" t="s">
+      <c r="F106" s="124" t="s">
         <v>1600</v>
       </c>
       <c r="G106" s="101" t="s">
@@ -74333,13 +73299,13 @@
       <c r="C107" s="26" t="s">
         <v>3558</v>
       </c>
-      <c r="D107" s="169" t="s">
+      <c r="D107" s="146" t="s">
         <v>2235</v>
       </c>
-      <c r="E107" s="171" t="s">
+      <c r="E107" s="134" t="s">
         <v>2234</v>
       </c>
-      <c r="F107" s="171" t="s">
+      <c r="F107" s="134" t="s">
         <v>2216</v>
       </c>
       <c r="G107" s="101" t="s">
@@ -74374,7 +73340,7 @@
         <f t="shared" si="8"/>
         <v>1026.1300000000001</v>
       </c>
-      <c r="P107" s="165">
+      <c r="P107" s="137">
         <v>1711.5</v>
       </c>
       <c r="Q107" s="67"/>
@@ -74393,9 +73359,9 @@
       <c r="C108" s="26" t="s">
         <v>3559</v>
       </c>
-      <c r="D108" s="170"/>
-      <c r="E108" s="172"/>
-      <c r="F108" s="172"/>
+      <c r="D108" s="147"/>
+      <c r="E108" s="136"/>
+      <c r="F108" s="136"/>
       <c r="G108" s="101" t="s">
         <v>3</v>
       </c>
@@ -74428,7 +73394,7 @@
         <f t="shared" si="8"/>
         <v>685.33</v>
       </c>
-      <c r="P108" s="166"/>
+      <c r="P108" s="138"/>
       <c r="Q108" s="67"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.4">
@@ -74441,13 +73407,13 @@
       <c r="C109" s="26" t="s">
         <v>3560</v>
       </c>
-      <c r="D109" s="169" t="s">
+      <c r="D109" s="146" t="s">
         <v>2233</v>
       </c>
-      <c r="E109" s="171" t="s">
+      <c r="E109" s="134" t="s">
         <v>2234</v>
       </c>
-      <c r="F109" s="171" t="s">
+      <c r="F109" s="134" t="s">
         <v>2216</v>
       </c>
       <c r="G109" s="101" t="s">
@@ -74482,7 +73448,7 @@
         <f t="shared" si="8"/>
         <v>86.13</v>
       </c>
-      <c r="P109" s="165">
+      <c r="P109" s="137">
         <v>120</v>
       </c>
       <c r="Q109" s="67"/>
@@ -74497,9 +73463,9 @@
       <c r="C110" s="26" t="s">
         <v>3561</v>
       </c>
-      <c r="D110" s="170"/>
-      <c r="E110" s="172"/>
-      <c r="F110" s="172"/>
+      <c r="D110" s="147"/>
+      <c r="E110" s="136"/>
+      <c r="F110" s="136"/>
       <c r="G110" s="101" t="s">
         <v>3</v>
       </c>
@@ -74532,7 +73498,7 @@
         <f t="shared" si="8"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="P110" s="166"/>
+      <c r="P110" s="138"/>
       <c r="Q110" s="67"/>
       <c r="R110" s="73">
         <f>SUM(N74:N110)</f>
@@ -79322,13 +78288,13 @@
       <c r="C191" s="26" t="s">
         <v>3676</v>
       </c>
-      <c r="D191" s="174" t="s">
+      <c r="D191" s="139" t="s">
         <v>1673</v>
       </c>
-      <c r="E191" s="177" t="s">
+      <c r="E191" s="142" t="s">
         <v>1674</v>
       </c>
-      <c r="F191" s="177" t="s">
+      <c r="F191" s="142" t="s">
         <v>1675</v>
       </c>
       <c r="G191" s="101" t="s">
@@ -79363,10 +78329,10 @@
         <f t="shared" si="13"/>
         <v>14.98</v>
       </c>
-      <c r="P191" s="165">
+      <c r="P191" s="137">
         <v>67.400000000000006</v>
       </c>
-      <c r="Q191" s="171" t="s">
+      <c r="Q191" s="134" t="s">
         <v>3681</v>
       </c>
       <c r="T191" s="69"/>
@@ -79382,9 +78348,9 @@
       <c r="C192" s="26" t="s">
         <v>3677</v>
       </c>
-      <c r="D192" s="175"/>
-      <c r="E192" s="178"/>
-      <c r="F192" s="178"/>
+      <c r="D192" s="140"/>
+      <c r="E192" s="143"/>
+      <c r="F192" s="143"/>
       <c r="G192" s="101" t="s">
         <v>3163</v>
       </c>
@@ -79417,8 +78383,8 @@
         <f t="shared" si="13"/>
         <v>7.49</v>
       </c>
-      <c r="P192" s="167"/>
-      <c r="Q192" s="173"/>
+      <c r="P192" s="145"/>
+      <c r="Q192" s="135"/>
       <c r="T192" s="69"/>
       <c r="U192" s="73"/>
     </row>
@@ -79432,9 +78398,9 @@
       <c r="C193" s="26" t="s">
         <v>3678</v>
       </c>
-      <c r="D193" s="175"/>
-      <c r="E193" s="178"/>
-      <c r="F193" s="178"/>
+      <c r="D193" s="140"/>
+      <c r="E193" s="143"/>
+      <c r="F193" s="143"/>
       <c r="G193" s="101" t="s">
         <v>3202</v>
       </c>
@@ -79467,8 +78433,8 @@
         <f t="shared" si="13"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="P193" s="167"/>
-      <c r="Q193" s="173"/>
+      <c r="P193" s="145"/>
+      <c r="Q193" s="135"/>
       <c r="T193" s="69"/>
       <c r="U193" s="73"/>
     </row>
@@ -79482,9 +78448,9 @@
       <c r="C194" s="26" t="s">
         <v>3679</v>
       </c>
-      <c r="D194" s="176"/>
-      <c r="E194" s="179"/>
-      <c r="F194" s="179"/>
+      <c r="D194" s="141"/>
+      <c r="E194" s="144"/>
+      <c r="F194" s="144"/>
       <c r="G194" s="101" t="s">
         <v>3</v>
       </c>
@@ -79517,8 +78483,8 @@
         <f t="shared" si="13"/>
         <v>11.23</v>
       </c>
-      <c r="P194" s="166"/>
-      <c r="Q194" s="172"/>
+      <c r="P194" s="138"/>
+      <c r="Q194" s="136"/>
       <c r="R194" s="73">
         <f>SUM(N156:N194)</f>
         <v>312.98</v>
@@ -84549,6 +83515,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P69:P72"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F10"/>
     <mergeCell ref="Q191:Q194"/>
     <mergeCell ref="P95:P96"/>
     <mergeCell ref="P107:P108"/>
@@ -84565,39 +83564,6 @@
     <mergeCell ref="E107:E108"/>
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P69:P72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -84605,7 +83571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA105"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -84638,25 +83604,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>3413</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
       <c r="R1" s="54"/>
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
@@ -84672,7 +83638,7 @@
       <c r="G2" s="95"/>
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
-      <c r="J2" s="136"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="94"/>
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
@@ -84690,96 +83656,96 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="128" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="96"/>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="147" t="s">
+      <c r="J3" s="126"/>
+      <c r="K3" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="149" t="s">
+      <c r="L3" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="147" t="s">
+      <c r="O3" s="160" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="154" t="s">
+      <c r="Q3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="156" t="s">
+      <c r="R3" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="158">
+      <c r="S3" s="155">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="152" t="s">
+      <c r="T3" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="153" t="s">
+      <c r="V3" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="139"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="97"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
       <c r="P4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="153"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="166"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -87739,13 +86705,13 @@
       <c r="C51" s="26" t="s">
         <v>3694</v>
       </c>
-      <c r="D51" s="174" t="s">
+      <c r="D51" s="139" t="s">
         <v>2976</v>
       </c>
-      <c r="E51" s="177" t="s">
+      <c r="E51" s="142" t="s">
         <v>2977</v>
       </c>
-      <c r="F51" s="171" t="s">
+      <c r="F51" s="134" t="s">
         <v>3685</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -87784,7 +86750,7 @@
         <f t="shared" si="4"/>
         <v>303.88</v>
       </c>
-      <c r="Q51" s="180">
+      <c r="Q51" s="169">
         <v>509.5</v>
       </c>
       <c r="R51" s="67"/>
@@ -87801,9 +86767,9 @@
       <c r="C52" s="26" t="s">
         <v>3695</v>
       </c>
-      <c r="D52" s="176"/>
-      <c r="E52" s="179"/>
-      <c r="F52" s="172"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="136"/>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -87840,7 +86806,7 @@
         <f t="shared" si="4"/>
         <v>205.44</v>
       </c>
-      <c r="Q52" s="181"/>
+      <c r="Q52" s="170"/>
       <c r="R52" s="67"/>
       <c r="S52" s="73"/>
       <c r="T52" s="73"/>
@@ -88308,7 +87274,7 @@
       <c r="C60" s="26" t="s">
         <v>3768</v>
       </c>
-      <c r="D60" s="120" t="s">
+      <c r="D60" s="110" t="s">
         <v>2920</v>
       </c>
       <c r="E60" s="64" t="s">
@@ -88372,7 +87338,7 @@
       <c r="C61" s="26" t="s">
         <v>3769</v>
       </c>
-      <c r="D61" s="120" t="s">
+      <c r="D61" s="110" t="s">
         <v>2918</v>
       </c>
       <c r="E61" s="64" t="s">
@@ -88436,7 +87402,7 @@
       <c r="C62" s="26" t="s">
         <v>3770</v>
       </c>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="110" t="s">
         <v>2926</v>
       </c>
       <c r="E62" s="64" t="s">
@@ -89327,13 +88293,13 @@
       <c r="C76" s="26" t="s">
         <v>3784</v>
       </c>
-      <c r="D76" s="184" t="s">
+      <c r="D76" s="173" t="s">
         <v>2946</v>
       </c>
-      <c r="E76" s="182" t="s">
+      <c r="E76" s="171" t="s">
         <v>2947</v>
       </c>
-      <c r="F76" s="182" t="s">
+      <c r="F76" s="171" t="s">
         <v>2948</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -89372,7 +88338,7 @@
         <f t="shared" si="11"/>
         <v>59.92</v>
       </c>
-      <c r="Q76" s="180">
+      <c r="Q76" s="169">
         <v>124.25</v>
       </c>
       <c r="R76" s="74"/>
@@ -89390,9 +88356,9 @@
       <c r="C77" s="26" t="s">
         <v>3785</v>
       </c>
-      <c r="D77" s="185"/>
-      <c r="E77" s="183"/>
-      <c r="F77" s="183"/>
+      <c r="D77" s="174"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="172"/>
       <c r="G77" s="3" t="s">
         <v>3202</v>
       </c>
@@ -89429,7 +88395,7 @@
         <f t="shared" si="11"/>
         <v>64.2</v>
       </c>
-      <c r="Q77" s="181"/>
+      <c r="Q77" s="170"/>
       <c r="R77" s="74"/>
       <c r="S77" s="73"/>
       <c r="T77" s="73"/>
@@ -90495,14 +89461,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -90513,15 +89480,14 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="Q76:Q77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/import/prep/excel/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
+++ b/import/prep/excel/63-9ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ เมย63 (1-30มิย63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B968CAE-2ABE-0945-8A0E-12E5C9266165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC4AE2A-C11B-A141-981E-1F7A79A76E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$R$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$W$252</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11816,7 +11816,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12163,20 +12163,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12196,83 +12253,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12286,6 +12271,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12572,8 +12561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R855"/>
   <sheetViews>
-    <sheetView topLeftCell="A825" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L831" sqref="L831"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -54956,7 +54945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -67163,8 +67152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA290"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A253" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T271" sqref="T271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67194,24 +67183,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="141" t="s">
         <v>3412</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -67253,58 +67242,58 @@
       <c r="C3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="152" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="158" t="s">
+      <c r="I3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="160" t="s">
+      <c r="J3" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="160" t="s">
+      <c r="L3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="160" t="s">
+      <c r="M3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="160" t="s">
+      <c r="N3" s="137" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="167" t="s">
+      <c r="P3" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="153" t="s">
+      <c r="Q3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="155">
+      <c r="R3" s="149">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="165" t="s">
+      <c r="S3" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="166" t="s">
+      <c r="U3" s="136" t="s">
         <v>20</v>
       </c>
     </row>
@@ -67312,28 +67301,28 @@
       <c r="A4" s="128"/>
       <c r="B4" s="128"/>
       <c r="C4" s="128"/>
-      <c r="D4" s="157"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="128"/>
-      <c r="F4" s="152"/>
+      <c r="F4" s="153"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="166"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="136"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -67345,13 +67334,13 @@
       <c r="C5" s="26" t="s">
         <v>3414</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="156" t="s">
         <v>2230</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="151" t="s">
         <v>2231</v>
       </c>
-      <c r="F5" s="150" t="s">
+      <c r="F5" s="151" t="s">
         <v>2216</v>
       </c>
       <c r="G5" s="121" t="s">
@@ -67383,14 +67372,19 @@
         <v>292.77</v>
       </c>
       <c r="O5" s="65">
-        <f t="shared" ref="O5:O68" si="3">ROUNDDOWN(H5+I5+M5,2)</f>
+        <f t="shared" ref="O5:P68" si="3">ROUNDDOWN(H5+I5+M5,2)</f>
         <v>4475.2700000000004</v>
       </c>
       <c r="P5" s="65">
-        <v>6999.4</v>
+        <f t="shared" si="3"/>
+        <v>585.54</v>
       </c>
       <c r="Q5" s="67" t="s">
         <v>3437</v>
+      </c>
+      <c r="R5" s="69">
+        <f>SUM(O5:O8)</f>
+        <v>11268.7</v>
       </c>
       <c r="T5" s="69"/>
       <c r="U5" s="69"/>
@@ -67405,9 +67399,9 @@
       <c r="C6" s="26" t="s">
         <v>3417</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
       <c r="G6" s="121" t="s">
         <v>3163</v>
       </c>
@@ -67441,7 +67435,8 @@
         <v>2524.13</v>
       </c>
       <c r="P6" s="65">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>330.26</v>
       </c>
       <c r="Q6" s="67" t="s">
         <v>3437</v>
@@ -67459,11 +67454,11 @@
       <c r="C7" s="26" t="s">
         <v>3418</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="150" t="s">
         <v>2232</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
       <c r="G7" s="121" t="s">
         <v>3435</v>
       </c>
@@ -67497,7 +67492,8 @@
         <v>1295.77</v>
       </c>
       <c r="P7" s="65">
-        <v>4269.3</v>
+        <f t="shared" si="3"/>
+        <v>169.54</v>
       </c>
       <c r="Q7" s="67" t="s">
         <v>3437</v>
@@ -67516,9 +67512,9 @@
       <c r="C8" s="26" t="s">
         <v>3419</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="121" t="s">
         <v>3163</v>
       </c>
@@ -67552,7 +67548,8 @@
         <v>2973.53</v>
       </c>
       <c r="P8" s="65">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>389.06</v>
       </c>
       <c r="Q8" s="67" t="s">
         <v>3437</v>
@@ -67574,8 +67571,8 @@
       <c r="D9" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
       <c r="G9" s="121" t="s">
         <v>3202</v>
       </c>
@@ -67614,6 +67611,10 @@
       <c r="Q9" s="67" t="s">
         <v>3438</v>
       </c>
+      <c r="R9" s="69">
+        <f>SUM(O9:O10)</f>
+        <v>6164.26</v>
+      </c>
       <c r="T9" s="69"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -67629,8 +67630,8 @@
       <c r="D10" s="3" t="s">
         <v>2232</v>
       </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
       <c r="G10" s="121" t="s">
         <v>3202</v>
       </c>
@@ -68386,7 +68387,7 @@
       </c>
       <c r="T22" s="73">
         <f>SUM(P5:P22)</f>
-        <v>23373.71</v>
+        <v>13579.41</v>
       </c>
       <c r="U22" s="73">
         <v>23373.71</v>
@@ -68705,13 +68706,13 @@
       <c r="C28" s="26" t="s">
         <v>3450</v>
       </c>
-      <c r="D28" s="149" t="s">
+      <c r="D28" s="150" t="s">
         <v>1770</v>
       </c>
-      <c r="E28" s="150" t="s">
+      <c r="E28" s="151" t="s">
         <v>1771</v>
       </c>
-      <c r="F28" s="150" t="s">
+      <c r="F28" s="151" t="s">
         <v>1772</v>
       </c>
       <c r="G28" s="101" t="s">
@@ -68746,13 +68747,20 @@
         <f t="shared" si="3"/>
         <v>18.72</v>
       </c>
-      <c r="P28" s="137">
+      <c r="P28" s="73">
+        <v>18.75</v>
+      </c>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="73">
+        <v>18.75</v>
+      </c>
+      <c r="S28" s="69">
+        <f>SUM(R28:R29)</f>
         <v>37.5</v>
       </c>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
+      <c r="T28" s="170">
+        <v>37.5</v>
+      </c>
       <c r="U28" s="73"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -68765,9 +68773,9 @@
       <c r="C29" s="26" t="s">
         <v>3451</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="101" t="s">
         <v>3</v>
       </c>
@@ -68800,9 +68808,13 @@
         <f t="shared" si="3"/>
         <v>18.72</v>
       </c>
-      <c r="P29" s="138"/>
+      <c r="P29" s="73">
+        <v>18.75</v>
+      </c>
       <c r="Q29" s="67"/>
-      <c r="R29" s="73"/>
+      <c r="R29" s="73">
+        <v>18.75</v>
+      </c>
       <c r="S29" s="73"/>
       <c r="T29" s="73"/>
       <c r="U29" s="73"/>
@@ -71103,13 +71115,13 @@
       <c r="C69" s="26" t="s">
         <v>3501</v>
       </c>
-      <c r="D69" s="149" t="s">
+      <c r="D69" s="150" t="s">
         <v>701</v>
       </c>
-      <c r="E69" s="150" t="s">
+      <c r="E69" s="151" t="s">
         <v>702</v>
       </c>
-      <c r="F69" s="150" t="s">
+      <c r="F69" s="151" t="s">
         <v>703</v>
       </c>
       <c r="G69" s="101" t="s">
@@ -71144,13 +71156,20 @@
         <f t="shared" ref="O69:O132" si="8">ROUNDDOWN(H69+I69+M69,2)</f>
         <v>86.13</v>
       </c>
-      <c r="P69" s="137">
+      <c r="P69" s="73">
+        <v>86.14</v>
+      </c>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="73">
+        <v>86.14</v>
+      </c>
+      <c r="S69" s="73">
+        <f>SUM(R69:R72)</f>
         <v>378.25</v>
       </c>
-      <c r="Q69" s="74"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
+      <c r="T69" s="170">
+        <v>378.25</v>
+      </c>
       <c r="U69" s="73"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
@@ -71163,9 +71182,9 @@
       <c r="C70" s="26" t="s">
         <v>3502</v>
       </c>
-      <c r="D70" s="149"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="150"/>
+      <c r="D70" s="150"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="151"/>
       <c r="G70" s="101" t="s">
         <v>3435</v>
       </c>
@@ -71198,9 +71217,13 @@
         <f t="shared" si="8"/>
         <v>104.86</v>
       </c>
-      <c r="P70" s="145"/>
+      <c r="P70" s="71">
+        <v>104.86</v>
+      </c>
       <c r="Q70" s="74"/>
-      <c r="R70" s="71"/>
+      <c r="R70" s="71">
+        <v>104.86</v>
+      </c>
       <c r="S70" s="71"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.4">
@@ -71213,9 +71236,9 @@
       <c r="C71" s="26" t="s">
         <v>3503</v>
       </c>
-      <c r="D71" s="149"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="150"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="151"/>
       <c r="G71" s="101" t="s">
         <v>3163</v>
       </c>
@@ -71248,9 +71271,13 @@
         <f t="shared" si="8"/>
         <v>86.13</v>
       </c>
-      <c r="P71" s="145"/>
+      <c r="P71" s="73">
+        <v>86.14</v>
+      </c>
       <c r="Q71" s="74"/>
-      <c r="R71" s="73"/>
+      <c r="R71" s="73">
+        <v>86.14</v>
+      </c>
       <c r="S71" s="73"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.4">
@@ -71263,9 +71290,9 @@
       <c r="C72" s="26" t="s">
         <v>3504</v>
       </c>
-      <c r="D72" s="149"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="150"/>
+      <c r="D72" s="150"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="151"/>
       <c r="G72" s="101" t="s">
         <v>3202</v>
       </c>
@@ -71298,9 +71325,13 @@
         <f t="shared" si="8"/>
         <v>101.11</v>
       </c>
-      <c r="P72" s="138"/>
+      <c r="P72" s="71">
+        <v>101.11</v>
+      </c>
       <c r="Q72" s="74"/>
-      <c r="R72" s="71"/>
+      <c r="R72" s="71">
+        <v>101.11</v>
+      </c>
       <c r="S72" s="71"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.4">
@@ -72609,13 +72640,13 @@
       <c r="C95" s="26" t="s">
         <v>3546</v>
       </c>
-      <c r="D95" s="146" t="s">
+      <c r="D95" s="164" t="s">
         <v>1302</v>
       </c>
-      <c r="E95" s="134" t="s">
+      <c r="E95" s="154" t="s">
         <v>1303</v>
       </c>
-      <c r="F95" s="134" t="s">
+      <c r="F95" s="154" t="s">
         <v>1304</v>
       </c>
       <c r="G95" s="101" t="s">
@@ -72650,13 +72681,20 @@
         <f t="shared" si="8"/>
         <v>93.62</v>
       </c>
-      <c r="P95" s="137">
+      <c r="P95" s="73">
+        <v>93.75</v>
+      </c>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="73">
+        <v>93.75</v>
+      </c>
+      <c r="S95" s="73">
+        <f>SUM(R95:R96)</f>
         <v>146.25</v>
       </c>
-      <c r="Q95" s="67"/>
-      <c r="R95" s="73"/>
-      <c r="S95" s="73"/>
-      <c r="T95" s="73"/>
+      <c r="T95" s="170">
+        <v>146.25</v>
+      </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A96" s="51">
@@ -72668,9 +72706,9 @@
       <c r="C96" s="26" t="s">
         <v>3547</v>
       </c>
-      <c r="D96" s="147"/>
-      <c r="E96" s="136"/>
-      <c r="F96" s="136"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="155"/>
+      <c r="F96" s="155"/>
       <c r="G96" s="101" t="s">
         <v>3</v>
       </c>
@@ -72703,13 +72741,17 @@
         <f t="shared" si="8"/>
         <v>52.43</v>
       </c>
-      <c r="P96" s="138"/>
+      <c r="P96" s="73">
+        <v>52.5</v>
+      </c>
       <c r="Q96" s="67"/>
-      <c r="R96" s="73"/>
+      <c r="R96" s="73">
+        <v>52.5</v>
+      </c>
       <c r="S96" s="73"/>
       <c r="T96" s="73"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A97" s="51">
         <v>93</v>
       </c>
@@ -72768,7 +72810,7 @@
       <c r="S97" s="73"/>
       <c r="T97" s="73"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A98" s="51">
         <v>94</v>
       </c>
@@ -72824,7 +72866,7 @@
       </c>
       <c r="Q98" s="67"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A99" s="51">
         <v>95</v>
       </c>
@@ -72884,7 +72926,7 @@
       <c r="T99" s="73"/>
       <c r="U99" s="73"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A100" s="51">
         <v>96</v>
       </c>
@@ -72944,7 +72986,7 @@
       <c r="T100" s="71"/>
       <c r="U100" s="73"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A101" s="51">
         <v>97</v>
       </c>
@@ -73000,7 +73042,7 @@
       </c>
       <c r="Q101" s="67"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A102" s="51">
         <v>98</v>
       </c>
@@ -73059,7 +73101,7 @@
       <c r="S102" s="71"/>
       <c r="T102" s="71"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A103" s="51">
         <v>99</v>
       </c>
@@ -73115,7 +73157,7 @@
       </c>
       <c r="Q103" s="67"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A104" s="51">
         <v>100</v>
       </c>
@@ -73173,7 +73215,7 @@
       <c r="T104" s="69"/>
       <c r="U104" s="73"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A105" s="51">
         <v>101</v>
       </c>
@@ -73230,7 +73272,7 @@
       <c r="Q105" s="67"/>
       <c r="T105" s="69"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A106" s="51">
         <v>102</v>
       </c>
@@ -73289,7 +73331,7 @@
       <c r="S106" s="71"/>
       <c r="T106" s="71"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A107" s="51">
         <v>103</v>
       </c>
@@ -73299,13 +73341,13 @@
       <c r="C107" s="26" t="s">
         <v>3558</v>
       </c>
-      <c r="D107" s="146" t="s">
+      <c r="D107" s="164" t="s">
         <v>2235</v>
       </c>
-      <c r="E107" s="134" t="s">
+      <c r="E107" s="154" t="s">
         <v>2234</v>
       </c>
-      <c r="F107" s="134" t="s">
+      <c r="F107" s="154" t="s">
         <v>2216</v>
       </c>
       <c r="G107" s="101" t="s">
@@ -73340,16 +73382,23 @@
         <f t="shared" si="8"/>
         <v>1026.1300000000001</v>
       </c>
-      <c r="P107" s="137">
+      <c r="P107" s="73">
+        <v>1026.1500000000001</v>
+      </c>
+      <c r="Q107" s="67"/>
+      <c r="R107" s="73">
+        <v>1026.1500000000001</v>
+      </c>
+      <c r="S107" s="73">
+        <f>SUM(R107:R108)</f>
         <v>1711.5</v>
       </c>
-      <c r="Q107" s="67"/>
-      <c r="R107" s="73"/>
-      <c r="S107" s="73"/>
-      <c r="T107" s="73"/>
+      <c r="T107" s="170">
+        <v>1711.5</v>
+      </c>
       <c r="U107" s="73"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A108" s="51">
         <v>104</v>
       </c>
@@ -73359,9 +73408,9 @@
       <c r="C108" s="26" t="s">
         <v>3559</v>
       </c>
-      <c r="D108" s="147"/>
-      <c r="E108" s="136"/>
-      <c r="F108" s="136"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="155"/>
+      <c r="F108" s="155"/>
       <c r="G108" s="101" t="s">
         <v>3</v>
       </c>
@@ -73394,10 +73443,15 @@
         <f t="shared" si="8"/>
         <v>685.33</v>
       </c>
-      <c r="P108" s="138"/>
+      <c r="P108" s="69">
+        <v>685.35</v>
+      </c>
       <c r="Q108" s="67"/>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="R108" s="69">
+        <v>685.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A109" s="51">
         <v>105</v>
       </c>
@@ -73407,13 +73461,13 @@
       <c r="C109" s="26" t="s">
         <v>3560</v>
       </c>
-      <c r="D109" s="146" t="s">
+      <c r="D109" s="164" t="s">
         <v>2233</v>
       </c>
-      <c r="E109" s="134" t="s">
+      <c r="E109" s="154" t="s">
         <v>2234</v>
       </c>
-      <c r="F109" s="134" t="s">
+      <c r="F109" s="154" t="s">
         <v>2216</v>
       </c>
       <c r="G109" s="101" t="s">
@@ -73448,12 +73502,22 @@
         <f t="shared" si="8"/>
         <v>86.13</v>
       </c>
-      <c r="P109" s="137">
+      <c r="P109" s="72">
+        <v>86.25</v>
+      </c>
+      <c r="Q109" s="67"/>
+      <c r="V109" s="70">
+        <v>86.25</v>
+      </c>
+      <c r="W109" s="70">
+        <f>SUM(V109:V110)</f>
         <v>120</v>
       </c>
-      <c r="Q109" s="67"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="X109" s="170">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A110" s="51">
         <v>106</v>
       </c>
@@ -73463,9 +73527,9 @@
       <c r="C110" s="26" t="s">
         <v>3561</v>
       </c>
-      <c r="D110" s="147"/>
-      <c r="E110" s="136"/>
-      <c r="F110" s="136"/>
+      <c r="D110" s="165"/>
+      <c r="E110" s="155"/>
+      <c r="F110" s="155"/>
       <c r="G110" s="101" t="s">
         <v>3</v>
       </c>
@@ -73498,7 +73562,9 @@
         <f t="shared" si="8"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="P110" s="138"/>
+      <c r="P110" s="72">
+        <v>33.75</v>
+      </c>
       <c r="Q110" s="67"/>
       <c r="R110" s="73">
         <f>SUM(N74:N110)</f>
@@ -73515,8 +73581,11 @@
       <c r="U110" s="72">
         <v>5170.82</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V110" s="70">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A111" s="51">
         <v>107</v>
       </c>
@@ -73572,7 +73641,7 @@
       </c>
       <c r="Q111" s="67"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A112" s="51">
         <v>108</v>
       </c>
@@ -77457,7 +77526,7 @@
       <c r="T176" s="73"/>
       <c r="U176" s="73"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A177" s="51">
         <v>173</v>
       </c>
@@ -77515,7 +77584,7 @@
       <c r="T177" s="69"/>
       <c r="U177" s="73"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A178" s="51">
         <v>174</v>
       </c>
@@ -77575,7 +77644,7 @@
       <c r="T178" s="73"/>
       <c r="U178" s="73"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A179" s="51">
         <v>175</v>
       </c>
@@ -77633,7 +77702,7 @@
       <c r="T179" s="69"/>
       <c r="U179" s="73"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A180" s="51">
         <v>176</v>
       </c>
@@ -77693,7 +77762,7 @@
       <c r="T180" s="73"/>
       <c r="U180" s="73"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A181" s="51">
         <v>177</v>
       </c>
@@ -77753,7 +77822,7 @@
       <c r="T181" s="73"/>
       <c r="U181" s="73"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A182" s="51">
         <v>178</v>
       </c>
@@ -77813,7 +77882,7 @@
       <c r="T182" s="73"/>
       <c r="U182" s="73"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A183" s="51">
         <v>179</v>
       </c>
@@ -77871,7 +77940,7 @@
       <c r="T183" s="69"/>
       <c r="U183" s="73"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A184" s="51">
         <v>180</v>
       </c>
@@ -77931,7 +78000,7 @@
       <c r="T184" s="73"/>
       <c r="U184" s="73"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A185" s="51">
         <v>181</v>
       </c>
@@ -77989,7 +78058,7 @@
       <c r="T185" s="69"/>
       <c r="U185" s="73"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A186" s="51">
         <v>182</v>
       </c>
@@ -78047,7 +78116,7 @@
       <c r="T186" s="69"/>
       <c r="U186" s="73"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A187" s="51">
         <v>183</v>
       </c>
@@ -78104,7 +78173,7 @@
       <c r="T187" s="69"/>
       <c r="U187" s="73"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A188" s="51">
         <v>184</v>
       </c>
@@ -78162,7 +78231,7 @@
       <c r="T188" s="69"/>
       <c r="U188" s="73"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A189" s="51">
         <v>185</v>
       </c>
@@ -78220,7 +78289,7 @@
       <c r="T189" s="69"/>
       <c r="U189" s="73"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A190" s="51">
         <v>186</v>
       </c>
@@ -78278,7 +78347,7 @@
       <c r="T190" s="69"/>
       <c r="U190" s="73"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A191" s="51">
         <v>187</v>
       </c>
@@ -78288,13 +78357,13 @@
       <c r="C191" s="26" t="s">
         <v>3676</v>
       </c>
-      <c r="D191" s="139" t="s">
+      <c r="D191" s="158" t="s">
         <v>1673</v>
       </c>
-      <c r="E191" s="142" t="s">
+      <c r="E191" s="161" t="s">
         <v>1674</v>
       </c>
-      <c r="F191" s="142" t="s">
+      <c r="F191" s="161" t="s">
         <v>1675</v>
       </c>
       <c r="G191" s="101" t="s">
@@ -78329,16 +78398,26 @@
         <f t="shared" si="13"/>
         <v>14.98</v>
       </c>
-      <c r="P191" s="137">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="Q191" s="134" t="s">
+      <c r="P191" s="72">
+        <v>14.98</v>
+      </c>
+      <c r="Q191" s="154" t="s">
         <v>3681</v>
       </c>
       <c r="T191" s="69"/>
       <c r="U191" s="73"/>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V191" s="70">
+        <v>14.98</v>
+      </c>
+      <c r="W191" s="70">
+        <f>SUM(V191:V194)</f>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="X191" s="170">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A192" s="51">
         <v>188</v>
       </c>
@@ -78348,9 +78427,9 @@
       <c r="C192" s="26" t="s">
         <v>3677</v>
       </c>
-      <c r="D192" s="140"/>
-      <c r="E192" s="143"/>
-      <c r="F192" s="143"/>
+      <c r="D192" s="159"/>
+      <c r="E192" s="162"/>
+      <c r="F192" s="162"/>
       <c r="G192" s="101" t="s">
         <v>3163</v>
       </c>
@@ -78383,12 +78462,17 @@
         <f t="shared" si="13"/>
         <v>7.49</v>
       </c>
-      <c r="P192" s="145"/>
-      <c r="Q192" s="135"/>
+      <c r="P192" s="72">
+        <v>7.49</v>
+      </c>
+      <c r="Q192" s="157"/>
       <c r="T192" s="69"/>
       <c r="U192" s="73"/>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V192" s="70">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A193" s="51">
         <v>189</v>
       </c>
@@ -78398,9 +78482,9 @@
       <c r="C193" s="26" t="s">
         <v>3678</v>
       </c>
-      <c r="D193" s="140"/>
-      <c r="E193" s="143"/>
-      <c r="F193" s="143"/>
+      <c r="D193" s="159"/>
+      <c r="E193" s="162"/>
+      <c r="F193" s="162"/>
       <c r="G193" s="101" t="s">
         <v>3202</v>
       </c>
@@ -78433,12 +78517,17 @@
         <f t="shared" si="13"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="P193" s="145"/>
-      <c r="Q193" s="135"/>
+      <c r="P193" s="72">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Q193" s="157"/>
       <c r="T193" s="69"/>
       <c r="U193" s="73"/>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V193" s="70">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A194" s="51">
         <v>190</v>
       </c>
@@ -78448,9 +78537,9 @@
       <c r="C194" s="26" t="s">
         <v>3679</v>
       </c>
-      <c r="D194" s="141"/>
-      <c r="E194" s="144"/>
-      <c r="F194" s="144"/>
+      <c r="D194" s="160"/>
+      <c r="E194" s="163"/>
+      <c r="F194" s="163"/>
       <c r="G194" s="101" t="s">
         <v>3</v>
       </c>
@@ -78483,8 +78572,10 @@
         <f t="shared" si="13"/>
         <v>11.23</v>
       </c>
-      <c r="P194" s="138"/>
-      <c r="Q194" s="136"/>
+      <c r="P194" s="72">
+        <v>11.23</v>
+      </c>
+      <c r="Q194" s="155"/>
       <c r="R194" s="73">
         <f>SUM(N156:N194)</f>
         <v>312.98</v>
@@ -78495,13 +78586,16 @@
       </c>
       <c r="T194" s="73">
         <f>SUM(P156:P194)</f>
-        <v>4787.8999999999996</v>
+        <v>4787.8999999999987</v>
       </c>
       <c r="U194" s="73">
         <v>4787.8999999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V194" s="70">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A195" s="51">
         <v>191</v>
       </c>
@@ -78559,7 +78653,7 @@
       <c r="T195" s="69"/>
       <c r="U195" s="73"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A196" s="51">
         <v>192</v>
       </c>
@@ -78617,7 +78711,7 @@
       <c r="T196" s="69"/>
       <c r="U196" s="73"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A197" s="51">
         <v>193</v>
       </c>
@@ -78675,7 +78769,7 @@
       <c r="T197" s="69"/>
       <c r="U197" s="73"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A198" s="51">
         <v>194</v>
       </c>
@@ -78733,7 +78827,7 @@
       <c r="T198" s="69"/>
       <c r="U198" s="73"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A199" s="51">
         <v>195</v>
       </c>
@@ -78791,7 +78885,7 @@
       <c r="T199" s="69"/>
       <c r="U199" s="73"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A200" s="51">
         <v>196</v>
       </c>
@@ -78849,7 +78943,7 @@
       <c r="T200" s="69"/>
       <c r="U200" s="73"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A201" s="51">
         <v>197</v>
       </c>
@@ -78909,7 +79003,7 @@
       <c r="T201" s="69"/>
       <c r="U201" s="73"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A202" s="51">
         <v>198</v>
       </c>
@@ -78967,7 +79061,7 @@
       <c r="T202" s="69"/>
       <c r="U202" s="73"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A203" s="51">
         <v>199</v>
       </c>
@@ -79025,7 +79119,7 @@
       <c r="T203" s="69"/>
       <c r="U203" s="73"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A204" s="51">
         <v>200</v>
       </c>
@@ -79083,7 +79177,7 @@
       <c r="T204" s="69"/>
       <c r="U204" s="73"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A205" s="51">
         <v>201</v>
       </c>
@@ -79141,7 +79235,7 @@
       <c r="T205" s="69"/>
       <c r="U205" s="73"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A206" s="51">
         <v>202</v>
       </c>
@@ -79201,7 +79295,7 @@
       <c r="T206" s="73"/>
       <c r="U206" s="73"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A207" s="51">
         <v>203</v>
       </c>
@@ -79259,7 +79353,7 @@
       <c r="T207" s="69"/>
       <c r="U207" s="73"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A208" s="51">
         <v>204</v>
       </c>
@@ -83416,7 +83510,7 @@
       </c>
       <c r="P277" s="84">
         <f>SUM(P5:P276)</f>
-        <v>59750.460000000006</v>
+        <v>49956.160000000003</v>
       </c>
       <c r="Q277" s="85"/>
       <c r="T277" s="69"/>
@@ -83444,15 +83538,15 @@
       <c r="Q278" s="68"/>
       <c r="R278" s="90">
         <f>SUM(R5:R277)</f>
-        <v>3906.7</v>
+        <v>23613.16</v>
       </c>
       <c r="S278" s="105">
         <f>SUM(S5:S277)</f>
-        <v>59727</v>
+        <v>62000.5</v>
       </c>
       <c r="T278" s="106">
         <f>SUM(T5:T277)</f>
-        <v>59750.460000000006</v>
+        <v>52229.66</v>
       </c>
       <c r="U278" s="106">
         <f>SUM(U5:U277)</f>
@@ -83514,14 +83608,33 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
+  <mergeCells count="43">
+    <mergeCell ref="Q191:Q194"/>
+    <mergeCell ref="D191:D194"/>
+    <mergeCell ref="E191:E194"/>
+    <mergeCell ref="F191:F194"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -83530,40 +83643,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P69:P72"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="F5:F10"/>
-    <mergeCell ref="Q191:Q194"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="D191:D194"/>
-    <mergeCell ref="E191:E194"/>
-    <mergeCell ref="F191:F194"/>
-    <mergeCell ref="P191:P194"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -83574,8 +83662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA105"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -83604,25 +83692,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="141" t="s">
         <v>3413</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
       <c r="R1" s="54"/>
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
@@ -83665,7 +83753,7 @@
       <c r="C3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="128" t="s">
@@ -83675,47 +83763,47 @@
       <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="158" t="s">
+      <c r="I3" s="143" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="126"/>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="162" t="s">
+      <c r="L3" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="160" t="s">
+      <c r="M3" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="160" t="s">
+      <c r="N3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="160" t="s">
+      <c r="O3" s="137" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="167" t="s">
+      <c r="Q3" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="153" t="s">
+      <c r="R3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="155">
+      <c r="S3" s="149">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="165" t="s">
+      <c r="T3" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="166" t="s">
+      <c r="V3" s="136" t="s">
         <v>20</v>
       </c>
     </row>
@@ -83723,29 +83811,29 @@
       <c r="A4" s="128"/>
       <c r="B4" s="128"/>
       <c r="C4" s="128"/>
-      <c r="D4" s="157"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="128"/>
       <c r="F4" s="97"/>
       <c r="G4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="159"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="144"/>
       <c r="J4" s="127"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
       <c r="P4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="166"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="135"/>
+      <c r="V4" s="136"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -86705,13 +86793,13 @@
       <c r="C51" s="26" t="s">
         <v>3694</v>
       </c>
-      <c r="D51" s="139" t="s">
+      <c r="D51" s="158" t="s">
         <v>2976</v>
       </c>
-      <c r="E51" s="142" t="s">
+      <c r="E51" s="161" t="s">
         <v>2977</v>
       </c>
-      <c r="F51" s="134" t="s">
+      <c r="F51" s="154" t="s">
         <v>3685</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -86750,12 +86838,20 @@
         <f t="shared" si="4"/>
         <v>303.88</v>
       </c>
-      <c r="Q51" s="169">
+      <c r="Q51" s="71">
+        <v>304</v>
+      </c>
+      <c r="R51" s="67"/>
+      <c r="S51" s="71">
+        <v>304</v>
+      </c>
+      <c r="T51" s="71">
+        <f>SUM(S51:S52)</f>
         <v>509.5</v>
       </c>
-      <c r="R51" s="67"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
+      <c r="U51" s="171">
+        <v>509.5</v>
+      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="51">
@@ -86767,9 +86863,9 @@
       <c r="C52" s="26" t="s">
         <v>3695</v>
       </c>
-      <c r="D52" s="141"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="136"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="155"/>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -86806,9 +86902,13 @@
         <f t="shared" si="4"/>
         <v>205.44</v>
       </c>
-      <c r="Q52" s="170"/>
+      <c r="Q52" s="73">
+        <v>205.5</v>
+      </c>
       <c r="R52" s="67"/>
-      <c r="S52" s="73"/>
+      <c r="S52" s="73">
+        <v>205.5</v>
+      </c>
       <c r="T52" s="73"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.4">
@@ -88293,13 +88393,13 @@
       <c r="C76" s="26" t="s">
         <v>3784</v>
       </c>
-      <c r="D76" s="173" t="s">
+      <c r="D76" s="168" t="s">
         <v>2946</v>
       </c>
-      <c r="E76" s="171" t="s">
+      <c r="E76" s="166" t="s">
         <v>2947</v>
       </c>
-      <c r="F76" s="171" t="s">
+      <c r="F76" s="166" t="s">
         <v>2948</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -88338,13 +88438,20 @@
         <f t="shared" si="11"/>
         <v>59.92</v>
       </c>
-      <c r="Q76" s="169">
+      <c r="Q76" s="71">
+        <v>60</v>
+      </c>
+      <c r="R76" s="74"/>
+      <c r="S76" s="71">
+        <v>60</v>
+      </c>
+      <c r="T76" s="71">
+        <f>SUM(S76:S77)</f>
         <v>124.25</v>
       </c>
-      <c r="R76" s="74"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
+      <c r="U76" s="171">
+        <v>124.25</v>
+      </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A77" s="51">
@@ -88356,9 +88463,9 @@
       <c r="C77" s="26" t="s">
         <v>3785</v>
       </c>
-      <c r="D77" s="174"/>
-      <c r="E77" s="172"/>
-      <c r="F77" s="172"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
       <c r="G77" s="3" t="s">
         <v>3202</v>
       </c>
@@ -88395,9 +88502,13 @@
         <f t="shared" si="11"/>
         <v>64.2</v>
       </c>
-      <c r="Q77" s="170"/>
+      <c r="Q77" s="73">
+        <v>64.25</v>
+      </c>
       <c r="R77" s="74"/>
-      <c r="S77" s="73"/>
+      <c r="S77" s="73">
+        <v>64.25</v>
+      </c>
       <c r="T77" s="73"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.4">
@@ -89389,15 +89500,15 @@
       <c r="R93" s="68"/>
       <c r="S93" s="90">
         <f>SUM(S5:S92)</f>
-        <v>2130.2399999999998</v>
+        <v>2763.9900000000002</v>
       </c>
       <c r="T93" s="105">
         <f>SUM(T5:T92)</f>
-        <v>32562.240000000005</v>
+        <v>33195.990000000005</v>
       </c>
       <c r="U93" s="106">
         <f>SUM(U5:U92)</f>
-        <v>32572.340000000004</v>
+        <v>33206.090000000004</v>
       </c>
       <c r="V93" s="106">
         <f>SUM(V5:V92)</f>
@@ -89460,16 +89571,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
+  <mergeCells count="25">
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="D76:D77"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -89480,14 +89588,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
